--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1420385.941830814</v>
+        <v>1366330.047166857</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3734806.867071135</v>
+        <v>3734806.867071134</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10880317.68944832</v>
+        <v>10880317.68944833</v>
       </c>
     </row>
     <row r="9">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.73682390723568</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.73682390723568</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>30.59619449749315</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="V17" t="n">
-        <v>30.59619449749318</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="Y17" t="n">
-        <v>34.73682390723568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1925,19 +1925,19 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>30.59619449749317</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>34.73682390723568</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>30.59619449749315</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>34.73682390723568</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1988,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>34.73682390723568</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>34.73682390723567</v>
       </c>
     </row>
     <row r="19">
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>34.73682390723568</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>30.59619449749317</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>34.73682390723568</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>30.59619449749315</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="U19" t="n">
-        <v>34.73682390723568</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>30.59619449749326</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>34.73682390723579</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>34.73682390723579</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>30.59619449749315</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="W20" t="n">
-        <v>34.73682390723579</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2210,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>34.73682390723579</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>30.59619449749326</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="U21" t="n">
-        <v>34.73682390723579</v>
+        <v>30.59619449749315</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="X21" t="n">
-        <v>34.73682390723579</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>30.59619449749325</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>34.73682390723579</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="T22" t="n">
-        <v>34.73682390723579</v>
+        <v>30.59619449749315</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.73682390723579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>132.5834180934741</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>165.511934200075</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>165.511934200075</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>165.511934200075</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>59.78023805246565</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>118.9311896975613</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>165.511934200075</v>
+        <v>145.782911643426</v>
       </c>
     </row>
     <row r="24">
@@ -2399,22 +2399,22 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>22.40073478106773</v>
       </c>
       <c r="D24" t="n">
-        <v>57.35618567595472</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>54.98033250469985</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>47.2546372745266</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>22.14656434781243</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,22 +2444,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.0689542639591</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>81.59429121515379</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>110.0758488061376</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>135.8525021922908</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>142.7117072607412</v>
       </c>
       <c r="W24" t="n">
-        <v>137.6398277581309</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>115.6841053147934</v>
@@ -2475,31 +2475,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89.74310029325326</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>77.1579412099438</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>58.52659312952832</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>56.34508275788514</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>77.90209946977473</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>72.13829261875554</v>
       </c>
       <c r="I25" t="n">
-        <v>16.2914143802576</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>3.270300227988741</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>98.02954345715936</v>
       </c>
       <c r="T25" t="n">
         <v>137.8567095395975</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>165.511934200075</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>165.511934200075</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>128.4957734634108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,25 +2557,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>145.782911643426</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="H26" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>120.3870096817219</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>25.39590196170418</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2642,16 +2642,16 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>37.50586344303984</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>47.2546372745266</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>22.14656434781243</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,13 +2684,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>81.5942912151538</v>
+        <v>81.59429121515379</v>
       </c>
       <c r="T27" t="n">
-        <v>110.0758488061376</v>
+        <v>98.43919693050923</v>
       </c>
       <c r="U27" t="n">
-        <v>135.8525021922908</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2699,10 +2699,10 @@
         <v>161.6061032722356</v>
       </c>
       <c r="X27" t="n">
-        <v>115.6841053147935</v>
+        <v>115.6841053147934</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>115.5938158886203</v>
       </c>
     </row>
     <row r="28">
@@ -2712,31 +2712,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>89.74310029325326</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>77.1579412099438</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>58.52659312952832</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>56.34508275788514</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>55.33216813424721</v>
       </c>
       <c r="G28" t="n">
-        <v>77.90209946977474</v>
+        <v>77.90209946977473</v>
       </c>
       <c r="H28" t="n">
-        <v>72.13829261875556</v>
+        <v>72.13829261875554</v>
       </c>
       <c r="I28" t="n">
-        <v>65.36159503857427</v>
+        <v>65.36159503857425</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>3.270300227988741</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>95.89285871639646</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>86.54154136370028</v>
       </c>
     </row>
     <row r="29">
@@ -2794,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>63.61184765141495</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>145.782911643426</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>118.9311896975613</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>133.0069696754473</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>161.2567730191525</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>76.44430376118331</v>
+        <v>76.44430376118329</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>67.5562005667169</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2924,22 +2924,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>110.0758488061376</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>135.8525021922908</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>142.7117072607412</v>
+        <v>105.4341854401019</v>
       </c>
       <c r="W30" t="n">
-        <v>161.6061032722356</v>
+        <v>161.6061032722355</v>
       </c>
       <c r="X30" t="n">
-        <v>15.62824895106249</v>
+        <v>115.6841053147934</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>115.5938158886203</v>
       </c>
     </row>
     <row r="31">
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>55.33216813424721</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>72.13829261875554</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>87.20451148848545</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>133.9277181482882</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>165.511934200075</v>
+        <v>50.6414676446685</v>
       </c>
       <c r="V31" t="n">
-        <v>128.2040896537997</v>
+        <v>162.0487634351439</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>135.6207755003531</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>128.4957734634107</v>
       </c>
     </row>
     <row r="32">
@@ -3031,25 +3031,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>86.69492062822933</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>60.74118054503047</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>59.08799101519669</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>118.2389426602923</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>132.3147226381784</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>65.11142546696257</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3119,13 +3119,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>54.28808546743089</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>21.45431731054347</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3170,13 +3170,13 @@
         <v>142.0194602234723</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>140.7635388187641</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>114.9918582775245</v>
       </c>
       <c r="Y33" t="n">
-        <v>114.9015688513514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3186,31 +3186,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>89.05085325598429</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>57.83434609225937</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>40.6635494278877</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>77.20985243250577</v>
+        <v>77.20985243250576</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>71.44604558148657</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>57.0607009852972</v>
       </c>
       <c r="J34" t="n">
-        <v>2.578053190719785</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>86.51226445121648</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>133.2354711110193</v>
       </c>
       <c r="T34" t="n">
-        <v>137.1644625023285</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>161.356516397875</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>127.8035264261418</v>
       </c>
     </row>
     <row r="35">
@@ -3271,22 +3271,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>26.08814899897316</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>119.6947626444529</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>59.08799101519668</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>118.2389426602923</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>133.9679121680121</v>
       </c>
     </row>
     <row r="36">
@@ -3344,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>75.75205672391435</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>81.92737206236275</v>
+        <v>59.24293315151343</v>
       </c>
       <c r="D36" t="n">
-        <v>56.66393863868576</v>
+        <v>56.66393863868575</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>66.86395352944794</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>46.56239023725765</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>21.45431731054346</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.376707226690144</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>80.90204417788483</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>109.3836017688686</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>135.1602551550218</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>142.0194602234723</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>160.9138562349666</v>
       </c>
       <c r="X36" t="n">
-        <v>46.59034825296506</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3423,31 +3423,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>89.05085325598429</v>
       </c>
       <c r="C37" t="n">
-        <v>76.46569417267484</v>
+        <v>41.43393244565408</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>57.83434609225935</v>
       </c>
       <c r="E37" t="n">
-        <v>55.65283572061618</v>
+        <v>55.65283572061617</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>54.63992109697824</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>77.20985243250576</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>71.44604558148657</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>64.66934800130528</v>
       </c>
       <c r="J37" t="n">
-        <v>2.578053190719785</v>
+        <v>2.578053190719771</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>137.1644625023285</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>161.356516397875</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>43.58921805936178</v>
+        <v>127.8035264261418</v>
       </c>
     </row>
     <row r="38">
@@ -3505,16 +3505,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>145.782911643426</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>133.0069696754473</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>161.2567730191525</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="W38" t="n">
-        <v>17.03110314890126</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3584,22 +3584,22 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>82.61961909963171</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>67.55620056671691</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>47.2546372745266</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>22.14656434781243</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,25 +3632,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>81.59429121515379</v>
+        <v>81.59429121515377</v>
       </c>
       <c r="T39" t="n">
         <v>110.0758488061376</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>135.8525021922908</v>
       </c>
       <c r="V39" t="n">
-        <v>115.4777370450518</v>
+        <v>142.7117072607412</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>56.40025945453457</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>115.6841053147934</v>
       </c>
       <c r="Y39" t="n">
-        <v>115.5938158886203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.74310029325326</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>77.1579412099438</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,19 +3672,19 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>34.74201188039405</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>77.90209946977471</v>
       </c>
       <c r="H40" t="n">
-        <v>72.13829261875554</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>65.36159503857425</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>3.270300227988741</v>
+        <v>3.270300227988727</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>92.26573660614029</v>
       </c>
       <c r="T40" t="n">
-        <v>137.8567095395975</v>
+        <v>137.8567095395974</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="V40" t="n">
-        <v>162.048763435144</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3754,11 +3754,11 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>130.7751102928394</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>82.04972987834849</v>
       </c>
       <c r="S41" t="n">
+        <v>33.13698726758437</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
         <v>130.7751102928394</v>
       </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
+      <c r="Y41" t="n">
         <v>130.7751102928394</v>
-      </c>
-      <c r="X41" t="n">
-        <v>115.186717145933</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,19 +3818,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>98.71379558706616</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>69.99820752112346</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>77.2498243305827</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>11.32293410489632</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,22 +3869,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>103.8637830410366</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="U42" t="n">
         <v>130.7751102928394</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>130.7751102928394</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>92.6053768816392</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>66.88140791925467</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,13 +3915,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>94.40778444463839</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.6310868644571</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>25.53979205387158</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.3426551888932</v>
+        <v>18.34265518889319</v>
       </c>
       <c r="R43" t="n">
         <v>109.4740033143683</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
         <v>130.7751102928394</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>115.1867171459329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>115.186717145933</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>130.7751102928393</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="T44" t="n">
-        <v>130.7751102928393</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.7751102928393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4061,13 +4061,13 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>64.84822006715291</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>77.2498243305827</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4106,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>103.8637830410366</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>130.7751102928393</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="U45" t="n">
-        <v>130.7751102928393</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>115.1867171459329</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>130.7751102928394</v>
       </c>
     </row>
     <row r="46">
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>80.79608495541116</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>34.39063219052179</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4179,13 +4179,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.712713831564572</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.4740033143683</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>130.7751102928393</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4194,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>130.7751102928393</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>130.7751102928393</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>130.7751102928394</v>
       </c>
     </row>
   </sheetData>
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>37.86664682897854</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="C17" t="n">
-        <v>37.86664682897854</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="D17" t="n">
-        <v>37.86664682897854</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="E17" t="n">
-        <v>37.86664682897854</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="F17" t="n">
-        <v>37.86664682897854</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="G17" t="n">
-        <v>37.86664682897854</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="H17" t="n">
-        <v>37.86664682897854</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="I17" t="n">
         <v>2.778945912578854</v>
@@ -5518,19 +5518,19 @@
         <v>2.778945912578854</v>
       </c>
       <c r="K17" t="n">
-        <v>37.16840158074218</v>
+        <v>37.16840158074217</v>
       </c>
       <c r="L17" t="n">
-        <v>71.55785724890549</v>
+        <v>70.16838429261605</v>
       </c>
       <c r="M17" t="n">
-        <v>71.55785724890549</v>
+        <v>104.5578399607794</v>
       </c>
       <c r="N17" t="n">
-        <v>71.55785724890549</v>
+        <v>104.5578399607794</v>
       </c>
       <c r="O17" t="n">
-        <v>105.9473129170688</v>
+        <v>104.5578399607794</v>
       </c>
       <c r="P17" t="n">
         <v>138.9472956289427</v>
@@ -5539,28 +5539,28 @@
         <v>138.9472956289427</v>
       </c>
       <c r="R17" t="n">
-        <v>138.9472956289427</v>
+        <v>103.859594712543</v>
       </c>
       <c r="S17" t="n">
-        <v>138.9472956289427</v>
+        <v>72.95434774537821</v>
       </c>
       <c r="T17" t="n">
-        <v>138.9472956289427</v>
+        <v>72.95434774537821</v>
       </c>
       <c r="U17" t="n">
-        <v>138.9472956289427</v>
+        <v>37.86664682897853</v>
       </c>
       <c r="V17" t="n">
-        <v>108.0420486617779</v>
+        <v>37.86664682897853</v>
       </c>
       <c r="W17" t="n">
-        <v>108.0420486617779</v>
+        <v>37.86664682897853</v>
       </c>
       <c r="X17" t="n">
-        <v>108.0420486617779</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="Y17" t="n">
-        <v>72.95434774537821</v>
+        <v>2.778945912578854</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>68.77189379614336</v>
+        <v>103.859594712543</v>
       </c>
       <c r="C18" t="n">
-        <v>37.86664682897854</v>
+        <v>103.859594712543</v>
       </c>
       <c r="D18" t="n">
-        <v>2.778945912578854</v>
+        <v>103.859594712543</v>
       </c>
       <c r="E18" t="n">
-        <v>2.778945912578854</v>
+        <v>72.95434774537821</v>
       </c>
       <c r="F18" t="n">
-        <v>2.778945912578854</v>
+        <v>37.86664682897853</v>
       </c>
       <c r="G18" t="n">
         <v>2.778945912578854</v>
@@ -5597,16 +5597,16 @@
         <v>2.778945912578854</v>
       </c>
       <c r="K18" t="n">
-        <v>2.778945912578854</v>
+        <v>37.16840158074217</v>
       </c>
       <c r="L18" t="n">
-        <v>37.16840158074218</v>
+        <v>71.55785724890549</v>
       </c>
       <c r="M18" t="n">
-        <v>71.55785724890549</v>
+        <v>105.9473129170688</v>
       </c>
       <c r="N18" t="n">
-        <v>105.9473129170688</v>
+        <v>138.9472956289427</v>
       </c>
       <c r="O18" t="n">
         <v>138.9472956289427</v>
@@ -5621,25 +5621,25 @@
         <v>138.9472956289427</v>
       </c>
       <c r="S18" t="n">
+        <v>138.9472956289427</v>
+      </c>
+      <c r="T18" t="n">
+        <v>138.9472956289427</v>
+      </c>
+      <c r="U18" t="n">
+        <v>138.9472956289427</v>
+      </c>
+      <c r="V18" t="n">
+        <v>138.9472956289427</v>
+      </c>
+      <c r="W18" t="n">
+        <v>138.9472956289427</v>
+      </c>
+      <c r="X18" t="n">
+        <v>138.9472956289427</v>
+      </c>
+      <c r="Y18" t="n">
         <v>103.859594712543</v>
-      </c>
-      <c r="T18" t="n">
-        <v>103.859594712543</v>
-      </c>
-      <c r="U18" t="n">
-        <v>103.859594712543</v>
-      </c>
-      <c r="V18" t="n">
-        <v>103.859594712543</v>
-      </c>
-      <c r="W18" t="n">
-        <v>103.859594712543</v>
-      </c>
-      <c r="X18" t="n">
-        <v>68.77189379614336</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>68.77189379614336</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.77189379614336</v>
+        <v>72.95434774537821</v>
       </c>
       <c r="C19" t="n">
-        <v>68.77189379614336</v>
+        <v>72.95434774537821</v>
       </c>
       <c r="D19" t="n">
-        <v>33.68419287974368</v>
+        <v>37.86664682897853</v>
       </c>
       <c r="E19" t="n">
-        <v>33.68419287974368</v>
+        <v>37.86664682897853</v>
       </c>
       <c r="F19" t="n">
-        <v>2.778945912578854</v>
+        <v>37.86664682897853</v>
       </c>
       <c r="G19" t="n">
-        <v>2.778945912578854</v>
+        <v>37.86664682897853</v>
       </c>
       <c r="H19" t="n">
-        <v>2.778945912578854</v>
+        <v>37.86664682897853</v>
       </c>
       <c r="I19" t="n">
         <v>2.778945912578854</v>
@@ -5676,19 +5676,19 @@
         <v>2.778945912578854</v>
       </c>
       <c r="K19" t="n">
-        <v>2.778945912578854</v>
+        <v>18.51498265000381</v>
       </c>
       <c r="L19" t="n">
-        <v>30.09307092029183</v>
+        <v>45.82910765771678</v>
       </c>
       <c r="M19" t="n">
-        <v>64.48252658845516</v>
+        <v>80.2185633258801</v>
       </c>
       <c r="N19" t="n">
-        <v>98.87198225661848</v>
+        <v>114.6080189940434</v>
       </c>
       <c r="O19" t="n">
-        <v>123.2112588915178</v>
+        <v>138.9472956289427</v>
       </c>
       <c r="P19" t="n">
         <v>138.9472956289427</v>
@@ -5697,28 +5697,28 @@
         <v>138.9472956289427</v>
       </c>
       <c r="R19" t="n">
-        <v>103.859594712543</v>
+        <v>138.9472956289427</v>
       </c>
       <c r="S19" t="n">
-        <v>103.859594712543</v>
+        <v>108.0420486617779</v>
       </c>
       <c r="T19" t="n">
-        <v>103.859594712543</v>
+        <v>72.95434774537821</v>
       </c>
       <c r="U19" t="n">
-        <v>68.77189379614336</v>
+        <v>72.95434774537821</v>
       </c>
       <c r="V19" t="n">
-        <v>68.77189379614336</v>
+        <v>72.95434774537821</v>
       </c>
       <c r="W19" t="n">
-        <v>68.77189379614336</v>
+        <v>72.95434774537821</v>
       </c>
       <c r="X19" t="n">
-        <v>68.77189379614336</v>
+        <v>72.95434774537821</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.77189379614336</v>
+        <v>72.95434774537821</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>103.8595947125434</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="C20" t="n">
-        <v>103.8595947125434</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="D20" t="n">
-        <v>103.8595947125434</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="E20" t="n">
-        <v>72.95434774537844</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="F20" t="n">
-        <v>37.86664682897865</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="G20" t="n">
-        <v>37.86664682897865</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="H20" t="n">
-        <v>2.778945912578863</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="I20" t="n">
-        <v>2.778945912578863</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="J20" t="n">
-        <v>2.778945912578863</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="K20" t="n">
-        <v>35.77892862445285</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="L20" t="n">
-        <v>70.16838429261628</v>
+        <v>35.77892862445274</v>
       </c>
       <c r="M20" t="n">
-        <v>70.16838429261628</v>
+        <v>70.16838429261605</v>
       </c>
       <c r="N20" t="n">
-        <v>70.16838429261628</v>
+        <v>104.5578399607794</v>
       </c>
       <c r="O20" t="n">
-        <v>104.5578399607797</v>
+        <v>138.9472956289427</v>
       </c>
       <c r="P20" t="n">
-        <v>138.9472956289432</v>
+        <v>138.9472956289427</v>
       </c>
       <c r="Q20" t="n">
-        <v>138.9472956289432</v>
+        <v>138.9472956289427</v>
       </c>
       <c r="R20" t="n">
-        <v>138.9472956289432</v>
+        <v>108.0420486617779</v>
       </c>
       <c r="S20" t="n">
-        <v>138.9472956289432</v>
+        <v>72.95434774537821</v>
       </c>
       <c r="T20" t="n">
-        <v>138.9472956289432</v>
+        <v>37.86664682897853</v>
       </c>
       <c r="U20" t="n">
-        <v>138.9472956289432</v>
+        <v>37.86664682897853</v>
       </c>
       <c r="V20" t="n">
-        <v>138.9472956289432</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="W20" t="n">
-        <v>103.8595947125434</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="X20" t="n">
-        <v>103.8595947125434</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="Y20" t="n">
-        <v>103.8595947125434</v>
+        <v>2.778945912578854</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.778945912578863</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="C21" t="n">
-        <v>2.778945912578863</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="D21" t="n">
-        <v>2.778945912578863</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="E21" t="n">
-        <v>2.778945912578863</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="F21" t="n">
-        <v>2.778945912578863</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="G21" t="n">
-        <v>2.778945912578863</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="H21" t="n">
-        <v>2.778945912578863</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="I21" t="n">
-        <v>2.778945912578863</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="J21" t="n">
-        <v>2.778945912578863</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="K21" t="n">
-        <v>2.778945912578863</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="L21" t="n">
-        <v>37.16840158074229</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="M21" t="n">
-        <v>71.55785724890572</v>
+        <v>37.16840158074217</v>
       </c>
       <c r="N21" t="n">
-        <v>71.55785724890572</v>
+        <v>71.55785724890549</v>
       </c>
       <c r="O21" t="n">
-        <v>104.5578399607797</v>
+        <v>71.55785724890549</v>
       </c>
       <c r="P21" t="n">
-        <v>104.5578399607797</v>
+        <v>104.5578399607794</v>
       </c>
       <c r="Q21" t="n">
-        <v>138.9472956289432</v>
+        <v>138.9472956289427</v>
       </c>
       <c r="R21" t="n">
-        <v>138.9472956289432</v>
+        <v>138.9472956289427</v>
       </c>
       <c r="S21" t="n">
-        <v>103.8595947125434</v>
+        <v>138.9472956289427</v>
       </c>
       <c r="T21" t="n">
-        <v>72.95434774537844</v>
+        <v>103.859594712543</v>
       </c>
       <c r="U21" t="n">
-        <v>37.86664682897865</v>
+        <v>72.95434774537821</v>
       </c>
       <c r="V21" t="n">
-        <v>37.86664682897865</v>
+        <v>37.86664682897853</v>
       </c>
       <c r="W21" t="n">
-        <v>37.86664682897865</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="X21" t="n">
-        <v>2.778945912578863</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.778945912578863</v>
+        <v>2.778945912578854</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.77189379614356</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="C22" t="n">
-        <v>68.77189379614356</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="D22" t="n">
-        <v>68.77189379614356</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="E22" t="n">
-        <v>68.77189379614356</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="F22" t="n">
-        <v>37.86664682897865</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="G22" t="n">
-        <v>2.778945912578863</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="H22" t="n">
-        <v>2.778945912578863</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="I22" t="n">
-        <v>2.778945912578863</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="J22" t="n">
-        <v>2.778945912578863</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="K22" t="n">
-        <v>2.778945912578863</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="L22" t="n">
-        <v>30.09307092029184</v>
+        <v>30.09307092029183</v>
       </c>
       <c r="M22" t="n">
-        <v>64.48252658845527</v>
+        <v>64.48252658845514</v>
       </c>
       <c r="N22" t="n">
-        <v>98.87198225661871</v>
+        <v>98.87198225661845</v>
       </c>
       <c r="O22" t="n">
-        <v>123.211258891518</v>
+        <v>123.2112588915177</v>
       </c>
       <c r="P22" t="n">
-        <v>135.7450519252197</v>
+        <v>138.9472956289427</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.9472956289432</v>
+        <v>138.9472956289427</v>
       </c>
       <c r="R22" t="n">
-        <v>138.9472956289432</v>
+        <v>103.859594712543</v>
       </c>
       <c r="S22" t="n">
-        <v>138.9472956289432</v>
+        <v>68.77189379614333</v>
       </c>
       <c r="T22" t="n">
-        <v>103.8595947125434</v>
+        <v>37.86664682897853</v>
       </c>
       <c r="U22" t="n">
-        <v>103.8595947125434</v>
+        <v>37.86664682897853</v>
       </c>
       <c r="V22" t="n">
-        <v>103.8595947125434</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="W22" t="n">
-        <v>103.8595947125434</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="X22" t="n">
-        <v>103.8595947125434</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="Y22" t="n">
-        <v>68.77189379614356</v>
+        <v>2.778945912578854</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13.240954736006</v>
+        <v>514.7922704938093</v>
       </c>
       <c r="C23" t="n">
-        <v>13.240954736006</v>
+        <v>347.6084985745415</v>
       </c>
       <c r="D23" t="n">
-        <v>13.240954736006</v>
+        <v>347.6084985745415</v>
       </c>
       <c r="E23" t="n">
-        <v>13.240954736006</v>
+        <v>180.4247266552737</v>
       </c>
       <c r="F23" t="n">
         <v>13.240954736006</v>
@@ -5992,49 +5992,49 @@
         <v>13.240954736006</v>
       </c>
       <c r="K23" t="n">
-        <v>21.28234208342923</v>
+        <v>13.240954736006</v>
       </c>
       <c r="L23" t="n">
-        <v>185.1391569415035</v>
+        <v>177.0977695940803</v>
       </c>
       <c r="M23" t="n">
-        <v>348.9959717995778</v>
+        <v>340.9545844521546</v>
       </c>
       <c r="N23" t="n">
-        <v>512.852786657652</v>
+        <v>504.8113993102289</v>
       </c>
       <c r="O23" t="n">
-        <v>662.0477368003001</v>
+        <v>654.006349452877</v>
       </c>
       <c r="P23" t="n">
-        <v>662.0477368003001</v>
+        <v>662.0477368003002</v>
       </c>
       <c r="Q23" t="n">
-        <v>662.0477368003001</v>
+        <v>662.0477368003002</v>
       </c>
       <c r="R23" t="n">
-        <v>601.6636579594257</v>
+        <v>662.0477368003002</v>
       </c>
       <c r="S23" t="n">
-        <v>481.5311431134041</v>
+        <v>662.0477368003002</v>
       </c>
       <c r="T23" t="n">
-        <v>481.5311431134041</v>
+        <v>662.0477368003002</v>
       </c>
       <c r="U23" t="n">
-        <v>481.5311431134041</v>
+        <v>662.0477368003002</v>
       </c>
       <c r="V23" t="n">
-        <v>481.5311431134041</v>
+        <v>662.0477368003002</v>
       </c>
       <c r="W23" t="n">
-        <v>481.5311431134041</v>
+        <v>662.0477368003002</v>
       </c>
       <c r="X23" t="n">
-        <v>314.3473711941364</v>
+        <v>662.0477368003002</v>
       </c>
       <c r="Y23" t="n">
-        <v>147.1635992748687</v>
+        <v>514.7922704938093</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>196.8144090824642</v>
+        <v>35.86795956536734</v>
       </c>
       <c r="C24" t="n">
-        <v>196.8144090824642</v>
+        <v>13.240954736006</v>
       </c>
       <c r="D24" t="n">
-        <v>138.8788679956412</v>
+        <v>13.240954736006</v>
       </c>
       <c r="E24" t="n">
-        <v>138.8788679956412</v>
+        <v>13.240954736006</v>
       </c>
       <c r="F24" t="n">
-        <v>83.34317859695452</v>
+        <v>13.240954736006</v>
       </c>
       <c r="G24" t="n">
-        <v>35.61122175399836</v>
+        <v>13.240954736006</v>
       </c>
       <c r="H24" t="n">
         <v>13.240954736006</v>
@@ -6071,49 +6071,49 @@
         <v>13.240954736006</v>
       </c>
       <c r="K24" t="n">
-        <v>13.240954736006</v>
+        <v>138.5985147938434</v>
       </c>
       <c r="L24" t="n">
-        <v>13.240954736006</v>
+        <v>302.4553296519177</v>
       </c>
       <c r="M24" t="n">
-        <v>177.0977695940803</v>
+        <v>466.312144509992</v>
       </c>
       <c r="N24" t="n">
-        <v>340.9545844521546</v>
+        <v>630.1689593680663</v>
       </c>
       <c r="O24" t="n">
-        <v>504.8113993102288</v>
+        <v>662.0477368003002</v>
       </c>
       <c r="P24" t="n">
-        <v>592.6531782869707</v>
+        <v>662.0477368003002</v>
       </c>
       <c r="Q24" t="n">
-        <v>662.0477368003001</v>
+        <v>662.0477368003002</v>
       </c>
       <c r="R24" t="n">
-        <v>651.8770759276141</v>
+        <v>662.0477368003002</v>
       </c>
       <c r="S24" t="n">
-        <v>569.4585999527113</v>
+        <v>662.0477368003002</v>
       </c>
       <c r="T24" t="n">
-        <v>569.4585999527113</v>
+        <v>550.8600107334945</v>
       </c>
       <c r="U24" t="n">
-        <v>569.4585999527113</v>
+        <v>413.6352610443118</v>
       </c>
       <c r="V24" t="n">
-        <v>569.4585999527113</v>
+        <v>269.4820213869974</v>
       </c>
       <c r="W24" t="n">
-        <v>430.4284709040942</v>
+        <v>269.4820213869974</v>
       </c>
       <c r="X24" t="n">
-        <v>313.5758392729898</v>
+        <v>152.6293897558929</v>
       </c>
       <c r="Y24" t="n">
-        <v>196.8144090824642</v>
+        <v>35.86795956536734</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>302.3552284202379</v>
+        <v>89.41125054079821</v>
       </c>
       <c r="C25" t="n">
-        <v>224.4179140667594</v>
+        <v>89.41125054079821</v>
       </c>
       <c r="D25" t="n">
-        <v>165.3001432288519</v>
+        <v>89.41125054079821</v>
       </c>
       <c r="E25" t="n">
-        <v>108.3859182208871</v>
+        <v>89.41125054079821</v>
       </c>
       <c r="F25" t="n">
-        <v>108.3859182208871</v>
+        <v>89.41125054079821</v>
       </c>
       <c r="G25" t="n">
-        <v>29.69692885747833</v>
+        <v>89.41125054079821</v>
       </c>
       <c r="H25" t="n">
-        <v>29.69692885747833</v>
+        <v>16.544288299631</v>
       </c>
       <c r="I25" t="n">
-        <v>13.240954736006</v>
+        <v>16.544288299631</v>
       </c>
       <c r="J25" t="n">
         <v>13.240954736006</v>
       </c>
       <c r="K25" t="n">
-        <v>80.38214891817915</v>
+        <v>80.38214891817904</v>
       </c>
       <c r="L25" t="n">
         <v>196.8842650156893</v>
       </c>
       <c r="M25" t="n">
-        <v>325.2602942977086</v>
+        <v>325.2602942977087</v>
       </c>
       <c r="N25" t="n">
-        <v>458.139136042942</v>
+        <v>458.1391360429423</v>
       </c>
       <c r="O25" t="n">
-        <v>571.6664037676385</v>
+        <v>571.6664037676387</v>
       </c>
       <c r="P25" t="n">
-        <v>658.1601685296803</v>
+        <v>658.1601685296804</v>
       </c>
       <c r="Q25" t="n">
-        <v>662.0477368003001</v>
+        <v>662.0477368003002</v>
       </c>
       <c r="R25" t="n">
-        <v>662.0477368003001</v>
+        <v>662.0477368003002</v>
       </c>
       <c r="S25" t="n">
-        <v>662.0477368003001</v>
+        <v>563.0279959344826</v>
       </c>
       <c r="T25" t="n">
-        <v>522.7985352451511</v>
+        <v>423.7787943793337</v>
       </c>
       <c r="U25" t="n">
-        <v>522.7985352451511</v>
+        <v>256.5950224600659</v>
       </c>
       <c r="V25" t="n">
-        <v>522.7985352451511</v>
+        <v>256.5950224600659</v>
       </c>
       <c r="W25" t="n">
-        <v>522.7985352451511</v>
+        <v>89.41125054079821</v>
       </c>
       <c r="X25" t="n">
-        <v>522.7985352451511</v>
+        <v>89.41125054079821</v>
       </c>
       <c r="Y25" t="n">
-        <v>393.0048246760493</v>
+        <v>89.41125054079821</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>662.0477368003001</v>
+        <v>636.3953105763567</v>
       </c>
       <c r="C26" t="n">
-        <v>514.7922704938092</v>
+        <v>636.3953105763567</v>
       </c>
       <c r="D26" t="n">
-        <v>347.6084985745414</v>
+        <v>636.3953105763567</v>
       </c>
       <c r="E26" t="n">
-        <v>180.4247266552737</v>
+        <v>636.3953105763567</v>
       </c>
       <c r="F26" t="n">
-        <v>180.4247266552737</v>
+        <v>469.2115386570889</v>
       </c>
       <c r="G26" t="n">
-        <v>180.4247266552737</v>
+        <v>302.0277667378211</v>
       </c>
       <c r="H26" t="n">
-        <v>13.240954736006</v>
+        <v>134.8439948185534</v>
       </c>
       <c r="I26" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="J26" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="K26" t="n">
         <v>116.2559606469284</v>
       </c>
       <c r="L26" t="n">
-        <v>244.6740517921006</v>
+        <v>280.1127755050027</v>
       </c>
       <c r="M26" t="n">
-        <v>408.5308666501749</v>
+        <v>443.969590363077</v>
       </c>
       <c r="N26" t="n">
-        <v>572.3876815082491</v>
+        <v>572.3876815082493</v>
       </c>
       <c r="O26" t="n">
-        <v>572.3876815082491</v>
+        <v>572.3876815082493</v>
       </c>
       <c r="P26" t="n">
-        <v>662.0477368003001</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="Q26" t="n">
-        <v>662.0477368003001</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="R26" t="n">
-        <v>662.0477368003001</v>
+        <v>636.3953105763567</v>
       </c>
       <c r="S26" t="n">
-        <v>662.0477368003001</v>
+        <v>636.3953105763567</v>
       </c>
       <c r="T26" t="n">
-        <v>662.0477368003001</v>
+        <v>636.3953105763567</v>
       </c>
       <c r="U26" t="n">
-        <v>662.0477368003001</v>
+        <v>636.3953105763567</v>
       </c>
       <c r="V26" t="n">
-        <v>662.0477368003001</v>
+        <v>636.3953105763567</v>
       </c>
       <c r="W26" t="n">
-        <v>662.0477368003001</v>
+        <v>636.3953105763567</v>
       </c>
       <c r="X26" t="n">
-        <v>662.0477368003001</v>
+        <v>636.3953105763567</v>
       </c>
       <c r="Y26" t="n">
-        <v>662.0477368003001</v>
+        <v>636.3953105763567</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>51.1256652845311</v>
+        <v>83.34317859695453</v>
       </c>
       <c r="C27" t="n">
-        <v>51.1256652845311</v>
+        <v>83.34317859695453</v>
       </c>
       <c r="D27" t="n">
-        <v>51.1256652845311</v>
+        <v>83.34317859695453</v>
       </c>
       <c r="E27" t="n">
-        <v>13.240954736006</v>
+        <v>83.34317859695453</v>
       </c>
       <c r="F27" t="n">
-        <v>13.240954736006</v>
+        <v>83.34317859695453</v>
       </c>
       <c r="G27" t="n">
-        <v>13.240954736006</v>
+        <v>35.61122175399836</v>
       </c>
       <c r="H27" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="I27" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="J27" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="K27" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="L27" t="n">
-        <v>101.082733712748</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="M27" t="n">
-        <v>101.082733712748</v>
+        <v>101.0827337127479</v>
       </c>
       <c r="N27" t="n">
         <v>264.9395485708222</v>
       </c>
       <c r="O27" t="n">
-        <v>428.7963634288965</v>
+        <v>428.7963634288966</v>
       </c>
       <c r="P27" t="n">
-        <v>592.6531782869707</v>
+        <v>592.653178286971</v>
       </c>
       <c r="Q27" t="n">
-        <v>662.0477368003001</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="R27" t="n">
-        <v>662.0477368003001</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="S27" t="n">
-        <v>579.6292608253973</v>
+        <v>579.6292608253975</v>
       </c>
       <c r="T27" t="n">
-        <v>468.4415347585916</v>
+        <v>480.1957285723579</v>
       </c>
       <c r="U27" t="n">
-        <v>331.216785069409</v>
+        <v>480.1957285723579</v>
       </c>
       <c r="V27" t="n">
-        <v>331.216785069409</v>
+        <v>480.1957285723579</v>
       </c>
       <c r="W27" t="n">
-        <v>167.9782969156356</v>
+        <v>316.9572404185846</v>
       </c>
       <c r="X27" t="n">
-        <v>51.1256652845311</v>
+        <v>200.1046087874801</v>
       </c>
       <c r="Y27" t="n">
-        <v>51.1256652845311</v>
+        <v>83.34317859695453</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>230.8187195108591</v>
+        <v>483.9824421973169</v>
       </c>
       <c r="C28" t="n">
-        <v>230.8187195108591</v>
+        <v>406.0451278438383</v>
       </c>
       <c r="D28" t="n">
-        <v>230.8187195108591</v>
+        <v>346.9273570059309</v>
       </c>
       <c r="E28" t="n">
-        <v>230.8187195108591</v>
+        <v>290.0131319979661</v>
       </c>
       <c r="F28" t="n">
-        <v>230.8187195108591</v>
+        <v>234.1220530744841</v>
       </c>
       <c r="G28" t="n">
-        <v>152.1297301474503</v>
+        <v>155.4330637110752</v>
       </c>
       <c r="H28" t="n">
-        <v>79.26276790628305</v>
+        <v>82.56610146990803</v>
       </c>
       <c r="I28" t="n">
-        <v>13.240954736006</v>
+        <v>16.544288299631</v>
       </c>
       <c r="J28" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="K28" t="n">
-        <v>80.38214891817904</v>
+        <v>80.38214891817915</v>
       </c>
       <c r="L28" t="n">
-        <v>196.8842650156893</v>
+        <v>196.8842650156894</v>
       </c>
       <c r="M28" t="n">
-        <v>325.2602942977086</v>
+        <v>325.2602942977088</v>
       </c>
       <c r="N28" t="n">
-        <v>458.1391360429421</v>
+        <v>458.1391360429423</v>
       </c>
       <c r="O28" t="n">
-        <v>571.6664037676386</v>
+        <v>571.6664037676387</v>
       </c>
       <c r="P28" t="n">
-        <v>658.1601685296804</v>
+        <v>658.1601685296805</v>
       </c>
       <c r="Q28" t="n">
-        <v>662.0477368003001</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="R28" t="n">
-        <v>662.0477368003001</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="S28" t="n">
-        <v>662.0477368003001</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="T28" t="n">
-        <v>662.0477368003001</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="U28" t="n">
-        <v>494.8639648810324</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="V28" t="n">
-        <v>398.0024914301268</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="W28" t="n">
-        <v>230.8187195108591</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="X28" t="n">
-        <v>230.8187195108591</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="Y28" t="n">
-        <v>230.8187195108591</v>
+        <v>574.6320384531283</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>77.49534630309182</v>
+        <v>327.6801929617648</v>
       </c>
       <c r="C29" t="n">
-        <v>13.240954736006</v>
+        <v>160.496421042497</v>
       </c>
       <c r="D29" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="E29" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="F29" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="G29" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="H29" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="I29" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="J29" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="K29" t="n">
-        <v>116.2559606469284</v>
+        <v>95.47910164945259</v>
       </c>
       <c r="L29" t="n">
-        <v>280.1127755050026</v>
+        <v>259.3359165075269</v>
       </c>
       <c r="M29" t="n">
-        <v>280.1127755050026</v>
+        <v>423.1927313656013</v>
       </c>
       <c r="N29" t="n">
-        <v>423.192731365601</v>
+        <v>423.1927313656013</v>
       </c>
       <c r="O29" t="n">
-        <v>572.3876815082491</v>
+        <v>572.3876815082493</v>
       </c>
       <c r="P29" t="n">
-        <v>662.0477368003001</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="Q29" t="n">
-        <v>662.0477368003001</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="R29" t="n">
-        <v>662.0477368003001</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="S29" t="n">
-        <v>541.9152219542785</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="T29" t="n">
-        <v>407.5647475346348</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="U29" t="n">
-        <v>244.6791182223595</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="V29" t="n">
-        <v>77.49534630309182</v>
+        <v>494.8639648810325</v>
       </c>
       <c r="W29" t="n">
-        <v>77.49534630309182</v>
+        <v>327.6801929617648</v>
       </c>
       <c r="X29" t="n">
-        <v>77.49534630309182</v>
+        <v>327.6801929617648</v>
       </c>
       <c r="Y29" t="n">
-        <v>77.49534630309182</v>
+        <v>327.6801929617648</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>13.240954736006</v>
+        <v>81.47954116703318</v>
       </c>
       <c r="C30" t="n">
-        <v>13.240954736006</v>
+        <v>81.47954116703318</v>
       </c>
       <c r="D30" t="n">
-        <v>13.240954736006</v>
+        <v>81.47954116703318</v>
       </c>
       <c r="E30" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="F30" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="G30" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="H30" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="I30" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="J30" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="K30" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="L30" t="n">
-        <v>170.4772922260773</v>
+        <v>177.0977695940803</v>
       </c>
       <c r="M30" t="n">
-        <v>334.3341070841516</v>
+        <v>340.9545844521547</v>
       </c>
       <c r="N30" t="n">
-        <v>498.1909219422258</v>
+        <v>428.7963634288966</v>
       </c>
       <c r="O30" t="n">
-        <v>662.0477368003001</v>
+        <v>592.653178286971</v>
       </c>
       <c r="P30" t="n">
-        <v>662.0477368003001</v>
+        <v>592.653178286971</v>
       </c>
       <c r="Q30" t="n">
-        <v>662.0477368003001</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="R30" t="n">
-        <v>662.0477368003001</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="S30" t="n">
-        <v>662.0477368003001</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="T30" t="n">
-        <v>550.8600107334944</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="U30" t="n">
-        <v>413.6352610443117</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="V30" t="n">
-        <v>269.4820213869973</v>
+        <v>555.5485595880762</v>
       </c>
       <c r="W30" t="n">
-        <v>106.243533233224</v>
+        <v>392.3100714343029</v>
       </c>
       <c r="X30" t="n">
-        <v>90.45742318164571</v>
+        <v>275.4574398031984</v>
       </c>
       <c r="Y30" t="n">
-        <v>90.45742318164571</v>
+        <v>158.6960096126729</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>141.9989959006552</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="C31" t="n">
-        <v>141.9989959006552</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="D31" t="n">
-        <v>141.9989959006552</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="E31" t="n">
-        <v>141.9989959006552</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="F31" t="n">
-        <v>86.10791697717322</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="G31" t="n">
-        <v>86.10791697717322</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="H31" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="I31" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="J31" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="K31" t="n">
-        <v>80.38214891817904</v>
+        <v>80.3821489181792</v>
       </c>
       <c r="L31" t="n">
-        <v>196.8842650156892</v>
+        <v>196.8842650156894</v>
       </c>
       <c r="M31" t="n">
-        <v>325.2602942977086</v>
+        <v>325.2602942977088</v>
       </c>
       <c r="N31" t="n">
-        <v>458.1391360429421</v>
+        <v>458.1391360429423</v>
       </c>
       <c r="O31" t="n">
-        <v>571.6664037676386</v>
+        <v>571.6664037676387</v>
       </c>
       <c r="P31" t="n">
-        <v>658.1601685296803</v>
+        <v>658.1601685296805</v>
       </c>
       <c r="Q31" t="n">
-        <v>662.0477368003001</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="R31" t="n">
-        <v>573.9623716604158</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="S31" t="n">
-        <v>438.6818482783065</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="T31" t="n">
-        <v>438.6818482783065</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="U31" t="n">
-        <v>271.4980763590387</v>
+        <v>610.894739179423</v>
       </c>
       <c r="V31" t="n">
-        <v>141.9989959006552</v>
+        <v>447.2091195479645</v>
       </c>
       <c r="W31" t="n">
-        <v>141.9989959006552</v>
+        <v>280.0253476286967</v>
       </c>
       <c r="X31" t="n">
-        <v>141.9989959006552</v>
+        <v>143.0346653051078</v>
       </c>
       <c r="Y31" t="n">
-        <v>141.9989959006552</v>
+        <v>13.24095473600601</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>602.3628973910105</v>
+        <v>408.9632263978046</v>
       </c>
       <c r="C32" t="n">
-        <v>514.7922704938092</v>
+        <v>408.9632263978046</v>
       </c>
       <c r="D32" t="n">
-        <v>347.6084985745414</v>
+        <v>408.9632263978046</v>
       </c>
       <c r="E32" t="n">
-        <v>180.4247266552737</v>
+        <v>408.9632263978046</v>
       </c>
       <c r="F32" t="n">
-        <v>13.240954736006</v>
+        <v>408.9632263978046</v>
       </c>
       <c r="G32" t="n">
-        <v>13.240954736006</v>
+        <v>241.7794544785369</v>
       </c>
       <c r="H32" t="n">
-        <v>13.240954736006</v>
+        <v>74.59568255926911</v>
       </c>
       <c r="I32" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="J32" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="K32" t="n">
         <v>116.2559606469284</v>
       </c>
       <c r="L32" t="n">
-        <v>116.2559606469284</v>
+        <v>280.1127755050027</v>
       </c>
       <c r="M32" t="n">
-        <v>259.3359165075268</v>
+        <v>423.1927313656013</v>
       </c>
       <c r="N32" t="n">
-        <v>423.192731365601</v>
+        <v>423.1927313656013</v>
       </c>
       <c r="O32" t="n">
-        <v>572.3876815082491</v>
+        <v>572.3876815082493</v>
       </c>
       <c r="P32" t="n">
-        <v>662.0477368003001</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="Q32" t="n">
-        <v>662.0477368003001</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="R32" t="n">
-        <v>602.3628973910105</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="S32" t="n">
-        <v>602.3628973910105</v>
+        <v>542.6144613858636</v>
       </c>
       <c r="T32" t="n">
-        <v>602.3628973910105</v>
+        <v>408.9632263978046</v>
       </c>
       <c r="U32" t="n">
-        <v>602.3628973910105</v>
+        <v>408.9632263978046</v>
       </c>
       <c r="V32" t="n">
-        <v>602.3628973910105</v>
+        <v>408.9632263978046</v>
       </c>
       <c r="W32" t="n">
-        <v>602.3628973910105</v>
+        <v>408.9632263978046</v>
       </c>
       <c r="X32" t="n">
-        <v>602.3628973910105</v>
+        <v>408.9632263978046</v>
       </c>
       <c r="Y32" t="n">
-        <v>602.3628973910105</v>
+        <v>408.9632263978046</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>155.517548922811</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="C33" t="n">
-        <v>89.74843228951546</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="D33" t="n">
-        <v>89.74843228951546</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="E33" t="n">
-        <v>89.74843228951546</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="F33" t="n">
-        <v>34.91198232241355</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="G33" t="n">
-        <v>34.91198232241355</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="H33" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="I33" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="J33" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="K33" t="n">
-        <v>13.240954736006</v>
+        <v>138.5985147938434</v>
       </c>
       <c r="L33" t="n">
-        <v>13.240954736006</v>
+        <v>138.5985147938434</v>
       </c>
       <c r="M33" t="n">
-        <v>177.0977695940803</v>
+        <v>138.5985147938434</v>
       </c>
       <c r="N33" t="n">
-        <v>340.9545844521546</v>
+        <v>264.9395485708222</v>
       </c>
       <c r="O33" t="n">
-        <v>504.8113993102288</v>
+        <v>428.7963634288966</v>
       </c>
       <c r="P33" t="n">
-        <v>662.0477368003001</v>
+        <v>592.653178286971</v>
       </c>
       <c r="Q33" t="n">
-        <v>662.0477368003001</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="R33" t="n">
-        <v>662.0477368003001</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="S33" t="n">
-        <v>662.0477368003001</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="T33" t="n">
-        <v>551.5592501650792</v>
+        <v>551.5592501650794</v>
       </c>
       <c r="U33" t="n">
-        <v>415.0337399074814</v>
+        <v>415.0337399074816</v>
       </c>
       <c r="V33" t="n">
-        <v>271.5797396817518</v>
+        <v>271.579739681752</v>
       </c>
       <c r="W33" t="n">
-        <v>271.5797396817518</v>
+        <v>129.3943469355257</v>
       </c>
       <c r="X33" t="n">
-        <v>271.5797396817518</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="Y33" t="n">
-        <v>155.517548922811</v>
+        <v>13.24095473600601</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>193.3276225575945</v>
+        <v>221.0354991797328</v>
       </c>
       <c r="C34" t="n">
-        <v>193.3276225575945</v>
+        <v>221.0354991797328</v>
       </c>
       <c r="D34" t="n">
-        <v>134.9090911512719</v>
+        <v>221.0354991797328</v>
       </c>
       <c r="E34" t="n">
-        <v>134.9090911512719</v>
+        <v>221.0354991797328</v>
       </c>
       <c r="F34" t="n">
-        <v>93.8347987998702</v>
+        <v>221.0354991797328</v>
       </c>
       <c r="G34" t="n">
-        <v>15.84504886804619</v>
+        <v>143.0457492479088</v>
       </c>
       <c r="H34" t="n">
-        <v>15.84504886804619</v>
+        <v>70.87802643832642</v>
       </c>
       <c r="I34" t="n">
-        <v>15.84504886804619</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="J34" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="K34" t="n">
-        <v>81.06747348507544</v>
+        <v>81.06747348507545</v>
       </c>
       <c r="L34" t="n">
-        <v>198.2549141494819</v>
+        <v>193.457642181208</v>
       </c>
       <c r="M34" t="n">
-        <v>327.3162679983975</v>
+        <v>322.5189960301237</v>
       </c>
       <c r="N34" t="n">
-        <v>456.0831623422532</v>
+        <v>456.0831623422534</v>
       </c>
       <c r="O34" t="n">
-        <v>570.2957546338459</v>
+        <v>570.2957546338462</v>
       </c>
       <c r="P34" t="n">
-        <v>657.474843962784</v>
+        <v>657.4748439627842</v>
       </c>
       <c r="Q34" t="n">
-        <v>662.0477368003001</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="R34" t="n">
-        <v>662.0477368003001</v>
+        <v>574.6616110920008</v>
       </c>
       <c r="S34" t="n">
-        <v>662.0477368003001</v>
+        <v>440.0803271414763</v>
       </c>
       <c r="T34" t="n">
-        <v>523.497774676736</v>
+        <v>440.0803271414763</v>
       </c>
       <c r="U34" t="n">
-        <v>523.497774676736</v>
+        <v>440.0803271414763</v>
       </c>
       <c r="V34" t="n">
-        <v>360.5113944768622</v>
+        <v>440.0803271414763</v>
       </c>
       <c r="W34" t="n">
-        <v>193.3276225575945</v>
+        <v>440.0803271414763</v>
       </c>
       <c r="X34" t="n">
-        <v>193.3276225575945</v>
+        <v>440.0803271414763</v>
       </c>
       <c r="Y34" t="n">
-        <v>193.3276225575945</v>
+        <v>310.9858560039594</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>662.0477368003001</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="C35" t="n">
-        <v>662.0477368003001</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="D35" t="n">
-        <v>635.6960711447716</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="E35" t="n">
-        <v>468.512299225504</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="F35" t="n">
-        <v>301.3285273062363</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="G35" t="n">
-        <v>134.1447553869685</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="H35" t="n">
-        <v>134.1447553869685</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="I35" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="J35" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="K35" t="n">
         <v>116.2559606469284</v>
       </c>
       <c r="L35" t="n">
-        <v>280.1127755050026</v>
+        <v>280.1127755050027</v>
       </c>
       <c r="M35" t="n">
-        <v>443.9695903630769</v>
+        <v>423.1927313656013</v>
       </c>
       <c r="N35" t="n">
-        <v>443.9695903630769</v>
+        <v>423.1927313656013</v>
       </c>
       <c r="O35" t="n">
-        <v>572.3876815082491</v>
+        <v>572.3876815082493</v>
       </c>
       <c r="P35" t="n">
-        <v>662.0477368003001</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="Q35" t="n">
-        <v>662.0477368003001</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="R35" t="n">
-        <v>662.0477368003001</v>
+        <v>602.3628973910107</v>
       </c>
       <c r="S35" t="n">
-        <v>662.0477368003001</v>
+        <v>482.929621976574</v>
       </c>
       <c r="T35" t="n">
-        <v>662.0477368003001</v>
+        <v>482.929621976574</v>
       </c>
       <c r="U35" t="n">
-        <v>662.0477368003001</v>
+        <v>482.929621976574</v>
       </c>
       <c r="V35" t="n">
-        <v>662.0477368003001</v>
+        <v>482.929621976574</v>
       </c>
       <c r="W35" t="n">
-        <v>662.0477368003001</v>
+        <v>315.7458500573063</v>
       </c>
       <c r="X35" t="n">
-        <v>662.0477368003001</v>
+        <v>148.5620781380385</v>
       </c>
       <c r="Y35" t="n">
-        <v>662.0477368003001</v>
+        <v>13.24095473600601</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>200.2648950777294</v>
+        <v>219.5289775947844</v>
       </c>
       <c r="C36" t="n">
-        <v>117.5099738026155</v>
+        <v>159.687630977094</v>
       </c>
       <c r="D36" t="n">
-        <v>60.27367214737737</v>
+        <v>102.4513293218559</v>
       </c>
       <c r="E36" t="n">
-        <v>60.27367214737737</v>
+        <v>34.91198232241354</v>
       </c>
       <c r="F36" t="n">
-        <v>60.27367214737737</v>
+        <v>34.91198232241354</v>
       </c>
       <c r="G36" t="n">
-        <v>13.240954736006</v>
+        <v>34.91198232241354</v>
       </c>
       <c r="H36" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="I36" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="J36" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="K36" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="L36" t="n">
-        <v>13.240954736006</v>
+        <v>177.0977695940803</v>
       </c>
       <c r="M36" t="n">
-        <v>101.082733712748</v>
+        <v>340.9545844521547</v>
       </c>
       <c r="N36" t="n">
-        <v>264.9395485708222</v>
+        <v>498.1909219422259</v>
       </c>
       <c r="O36" t="n">
-        <v>428.7963634288965</v>
+        <v>498.1909219422259</v>
       </c>
       <c r="P36" t="n">
-        <v>592.6531782869707</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="Q36" t="n">
-        <v>662.0477368003001</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="R36" t="n">
-        <v>652.5763153591989</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="S36" t="n">
-        <v>570.8570788158809</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="T36" t="n">
-        <v>460.36859218066</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="U36" t="n">
-        <v>323.8430819230622</v>
+        <v>525.5222265427025</v>
       </c>
       <c r="V36" t="n">
-        <v>323.8430819230622</v>
+        <v>382.0682263169729</v>
       </c>
       <c r="W36" t="n">
-        <v>323.8430819230622</v>
+        <v>219.5289775947844</v>
       </c>
       <c r="X36" t="n">
-        <v>276.7821240917843</v>
+        <v>219.5289775947844</v>
       </c>
       <c r="Y36" t="n">
-        <v>276.7821240917843</v>
+        <v>219.5289775947844</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>149.29810936632</v>
+        <v>443.0029088385568</v>
       </c>
       <c r="C37" t="n">
-        <v>72.06003444442618</v>
+        <v>401.1504518227446</v>
       </c>
       <c r="D37" t="n">
-        <v>72.06003444442618</v>
+        <v>342.731920416422</v>
       </c>
       <c r="E37" t="n">
-        <v>15.84504886804619</v>
+        <v>286.516934840042</v>
       </c>
       <c r="F37" t="n">
-        <v>15.84504886804619</v>
+        <v>231.3250953481448</v>
       </c>
       <c r="G37" t="n">
-        <v>15.84504886804619</v>
+        <v>153.3353454163208</v>
       </c>
       <c r="H37" t="n">
-        <v>15.84504886804619</v>
+        <v>81.16762260673839</v>
       </c>
       <c r="I37" t="n">
-        <v>15.84504886804619</v>
+        <v>15.84504886804618</v>
       </c>
       <c r="J37" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="K37" t="n">
-        <v>76.27020151680142</v>
+        <v>76.27020151680158</v>
       </c>
       <c r="L37" t="n">
-        <v>193.4576421812079</v>
+        <v>193.457642181208</v>
       </c>
       <c r="M37" t="n">
-        <v>322.5189960301235</v>
+        <v>322.5189960301237</v>
       </c>
       <c r="N37" t="n">
-        <v>456.0831623422532</v>
+        <v>456.0831623422534</v>
       </c>
       <c r="O37" t="n">
-        <v>570.2957546338459</v>
+        <v>570.2957546338462</v>
       </c>
       <c r="P37" t="n">
-        <v>657.474843962784</v>
+        <v>657.4748439627842</v>
       </c>
       <c r="Q37" t="n">
-        <v>662.0477368003001</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="R37" t="n">
-        <v>662.0477368003001</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="S37" t="n">
-        <v>662.0477368003001</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="T37" t="n">
-        <v>523.497774676736</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="U37" t="n">
-        <v>523.497774676736</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="V37" t="n">
-        <v>360.5113944768622</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="W37" t="n">
-        <v>193.3276225575945</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="X37" t="n">
-        <v>193.3276225575945</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="Y37" t="n">
-        <v>149.29810936632</v>
+        <v>532.9532656627833</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>180.4247266552737</v>
+        <v>327.6801929617648</v>
       </c>
       <c r="C38" t="n">
-        <v>13.240954736006</v>
+        <v>327.6801929617648</v>
       </c>
       <c r="D38" t="n">
-        <v>13.240954736006</v>
+        <v>180.4247266552738</v>
       </c>
       <c r="E38" t="n">
-        <v>13.240954736006</v>
+        <v>180.4247266552738</v>
       </c>
       <c r="F38" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="G38" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="H38" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="I38" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="J38" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="K38" t="n">
         <v>116.2559606469284</v>
       </c>
       <c r="L38" t="n">
-        <v>280.1127755050026</v>
+        <v>280.1127755050027</v>
       </c>
       <c r="M38" t="n">
-        <v>280.1127755050026</v>
+        <v>423.1927313656013</v>
       </c>
       <c r="N38" t="n">
-        <v>423.192731365601</v>
+        <v>423.1927313656013</v>
       </c>
       <c r="O38" t="n">
-        <v>572.3876815082491</v>
+        <v>572.3876815082493</v>
       </c>
       <c r="P38" t="n">
-        <v>662.0477368003001</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="Q38" t="n">
-        <v>662.0477368003001</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="R38" t="n">
-        <v>662.0477368003001</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="S38" t="n">
-        <v>662.0477368003001</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="T38" t="n">
-        <v>527.6972623806563</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="U38" t="n">
-        <v>364.8116330683811</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="V38" t="n">
-        <v>197.6278611491134</v>
+        <v>494.8639648810325</v>
       </c>
       <c r="W38" t="n">
-        <v>180.4247266552737</v>
+        <v>494.8639648810325</v>
       </c>
       <c r="X38" t="n">
-        <v>180.4247266552737</v>
+        <v>327.6801929617648</v>
       </c>
       <c r="Y38" t="n">
-        <v>180.4247266552737</v>
+        <v>327.6801929617648</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>235.0359257346804</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="C39" t="n">
-        <v>151.5817650279817</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="D39" t="n">
-        <v>151.5817650279817</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="E39" t="n">
-        <v>83.34317859695452</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="F39" t="n">
-        <v>83.34317859695452</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="G39" t="n">
-        <v>35.61122175399836</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="H39" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="I39" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="J39" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="K39" t="n">
-        <v>101.082733712748</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="L39" t="n">
-        <v>264.9395485708222</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="M39" t="n">
-        <v>264.9395485708222</v>
+        <v>101.0827337127479</v>
       </c>
       <c r="N39" t="n">
         <v>264.9395485708222</v>
       </c>
       <c r="O39" t="n">
-        <v>428.7963634288965</v>
+        <v>428.7963634288966</v>
       </c>
       <c r="P39" t="n">
-        <v>592.6531782869707</v>
+        <v>592.653178286971</v>
       </c>
       <c r="Q39" t="n">
-        <v>662.0477368003001</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="R39" t="n">
-        <v>662.0477368003001</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="S39" t="n">
-        <v>579.6292608253973</v>
+        <v>579.6292608253975</v>
       </c>
       <c r="T39" t="n">
-        <v>468.4415347585917</v>
+        <v>468.4415347585919</v>
       </c>
       <c r="U39" t="n">
-        <v>468.4415347585917</v>
+        <v>331.2167850694093</v>
       </c>
       <c r="V39" t="n">
-        <v>351.797355925206</v>
+        <v>187.0635454120949</v>
       </c>
       <c r="W39" t="n">
-        <v>351.797355925206</v>
+        <v>130.0935863671105</v>
       </c>
       <c r="X39" t="n">
-        <v>351.797355925206</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="Y39" t="n">
-        <v>235.0359257346804</v>
+        <v>13.24095473600601</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>268.4633193578812</v>
+        <v>95.23327766303979</v>
       </c>
       <c r="C40" t="n">
-        <v>190.5260050044026</v>
+        <v>95.23327766303979</v>
       </c>
       <c r="D40" t="n">
-        <v>190.5260050044026</v>
+        <v>95.23327766303979</v>
       </c>
       <c r="E40" t="n">
-        <v>190.5260050044026</v>
+        <v>95.23327766303979</v>
       </c>
       <c r="F40" t="n">
-        <v>155.4330637110752</v>
+        <v>95.23327766303979</v>
       </c>
       <c r="G40" t="n">
-        <v>155.4330637110752</v>
+        <v>16.54428829963098</v>
       </c>
       <c r="H40" t="n">
-        <v>82.56610146990802</v>
+        <v>16.54428829963098</v>
       </c>
       <c r="I40" t="n">
-        <v>16.54428829963099</v>
+        <v>16.54428829963098</v>
       </c>
       <c r="J40" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="K40" t="n">
-        <v>80.38214891817915</v>
+        <v>80.3821489181792</v>
       </c>
       <c r="L40" t="n">
-        <v>196.8842650156893</v>
+        <v>196.8842650156894</v>
       </c>
       <c r="M40" t="n">
-        <v>325.2602942977086</v>
+        <v>325.2602942977088</v>
       </c>
       <c r="N40" t="n">
-        <v>458.139136042942</v>
+        <v>458.1391360429423</v>
       </c>
       <c r="O40" t="n">
-        <v>571.6664037676385</v>
+        <v>571.6664037676387</v>
       </c>
       <c r="P40" t="n">
-        <v>658.1601685296803</v>
+        <v>658.1601685296805</v>
       </c>
       <c r="Q40" t="n">
-        <v>662.0477368003001</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="R40" t="n">
-        <v>662.0477368003001</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="S40" t="n">
-        <v>662.0477368003001</v>
+        <v>568.8500230567242</v>
       </c>
       <c r="T40" t="n">
-        <v>522.7985352451511</v>
+        <v>429.6008215015753</v>
       </c>
       <c r="U40" t="n">
-        <v>522.7985352451511</v>
+        <v>262.4170495823075</v>
       </c>
       <c r="V40" t="n">
-        <v>359.1129156136926</v>
+        <v>262.4170495823075</v>
       </c>
       <c r="W40" t="n">
-        <v>359.1129156136926</v>
+        <v>95.23327766303979</v>
       </c>
       <c r="X40" t="n">
-        <v>359.1129156136926</v>
+        <v>95.23327766303979</v>
       </c>
       <c r="Y40" t="n">
-        <v>359.1129156136926</v>
+        <v>95.23327766303979</v>
       </c>
     </row>
     <row r="41">
@@ -7402,7 +7402,7 @@
         <v>142.5580798262952</v>
       </c>
       <c r="G41" t="n">
-        <v>10.46200882342715</v>
+        <v>142.5580798262952</v>
       </c>
       <c r="H41" t="n">
         <v>10.46200882342715</v>
@@ -7420,13 +7420,13 @@
         <v>242.9443739242605</v>
       </c>
       <c r="M41" t="n">
-        <v>303.9730266893955</v>
+        <v>242.9443739242605</v>
       </c>
       <c r="N41" t="n">
-        <v>303.9730266893955</v>
+        <v>372.4117331141715</v>
       </c>
       <c r="O41" t="n">
-        <v>433.4403858793065</v>
+        <v>501.8790923040825</v>
       </c>
       <c r="P41" t="n">
         <v>523.1004411713575</v>
@@ -7435,25 +7435,25 @@
         <v>523.1004411713575</v>
       </c>
       <c r="R41" t="n">
-        <v>523.1004411713575</v>
+        <v>440.2219261427226</v>
       </c>
       <c r="S41" t="n">
-        <v>391.0043701684895</v>
+        <v>406.7502218320313</v>
       </c>
       <c r="T41" t="n">
-        <v>391.0043701684895</v>
+        <v>406.7502218320313</v>
       </c>
       <c r="U41" t="n">
-        <v>391.0043701684895</v>
+        <v>406.7502218320313</v>
       </c>
       <c r="V41" t="n">
-        <v>391.0043701684895</v>
+        <v>406.7502218320313</v>
       </c>
       <c r="W41" t="n">
-        <v>258.9082991656214</v>
+        <v>406.7502218320313</v>
       </c>
       <c r="X41" t="n">
-        <v>142.5580798262952</v>
+        <v>274.6541508291633</v>
       </c>
       <c r="Y41" t="n">
         <v>142.5580798262952</v>
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>159.1973945322213</v>
+        <v>21.8993160000901</v>
       </c>
       <c r="C42" t="n">
-        <v>159.1973945322213</v>
+        <v>21.8993160000901</v>
       </c>
       <c r="D42" t="n">
-        <v>88.49213440987432</v>
+        <v>21.8993160000901</v>
       </c>
       <c r="E42" t="n">
-        <v>88.49213440987432</v>
+        <v>21.8993160000901</v>
       </c>
       <c r="F42" t="n">
-        <v>10.46200882342715</v>
+        <v>21.8993160000901</v>
       </c>
       <c r="G42" t="n">
-        <v>10.46200882342715</v>
+        <v>21.8993160000901</v>
       </c>
       <c r="H42" t="n">
-        <v>10.46200882342715</v>
+        <v>21.8993160000901</v>
       </c>
       <c r="I42" t="n">
         <v>10.46200882342715</v>
@@ -7493,19 +7493,19 @@
         <v>10.46200882342715</v>
       </c>
       <c r="K42" t="n">
-        <v>10.46200882342715</v>
+        <v>135.8195688812646</v>
       </c>
       <c r="L42" t="n">
-        <v>139.9293680133381</v>
+        <v>264.1657227915355</v>
       </c>
       <c r="M42" t="n">
-        <v>264.1657227915355</v>
+        <v>393.6330819814465</v>
       </c>
       <c r="N42" t="n">
         <v>393.6330819814465</v>
       </c>
       <c r="O42" t="n">
-        <v>523.1004411713575</v>
+        <v>393.6330819814465</v>
       </c>
       <c r="P42" t="n">
         <v>523.1004411713575</v>
@@ -7517,25 +7517,25 @@
         <v>523.1004411713575</v>
       </c>
       <c r="S42" t="n">
-        <v>523.1004411713575</v>
+        <v>418.1875290086942</v>
       </c>
       <c r="T42" t="n">
-        <v>523.1004411713575</v>
+        <v>286.0914580058262</v>
       </c>
       <c r="U42" t="n">
-        <v>391.0043701684895</v>
+        <v>153.9953870029582</v>
       </c>
       <c r="V42" t="n">
-        <v>391.0043701684895</v>
+        <v>21.8993160000901</v>
       </c>
       <c r="W42" t="n">
-        <v>391.0043701684895</v>
+        <v>21.8993160000901</v>
       </c>
       <c r="X42" t="n">
-        <v>258.9082991656214</v>
+        <v>21.8993160000901</v>
       </c>
       <c r="Y42" t="n">
-        <v>258.9082991656214</v>
+        <v>21.8993160000901</v>
       </c>
     </row>
     <row r="43">
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>261.8966343066091</v>
+        <v>36.25977857481259</v>
       </c>
       <c r="C43" t="n">
-        <v>261.8966343066091</v>
+        <v>36.25977857481259</v>
       </c>
       <c r="D43" t="n">
-        <v>194.3396566103923</v>
+        <v>36.25977857481259</v>
       </c>
       <c r="E43" t="n">
-        <v>194.3396566103923</v>
+        <v>36.25977857481259</v>
       </c>
       <c r="F43" t="n">
-        <v>194.3396566103923</v>
+        <v>36.25977857481259</v>
       </c>
       <c r="G43" t="n">
-        <v>194.3396566103923</v>
+        <v>36.25977857481259</v>
       </c>
       <c r="H43" t="n">
-        <v>98.97825818146464</v>
+        <v>36.25977857481259</v>
       </c>
       <c r="I43" t="n">
-        <v>10.46200882342715</v>
+        <v>36.25977857481259</v>
       </c>
       <c r="J43" t="n">
         <v>10.46200882342715</v>
       </c>
       <c r="K43" t="n">
-        <v>55.55640609797632</v>
+        <v>55.55640609797626</v>
       </c>
       <c r="L43" t="n">
         <v>150.0117252878625</v>
       </c>
       <c r="M43" t="n">
-        <v>256.3409576622579</v>
+        <v>256.3409576622578</v>
       </c>
       <c r="N43" t="n">
         <v>367.1730024998673</v>
@@ -7602,19 +7602,19 @@
         <v>393.9927053094772</v>
       </c>
       <c r="U43" t="n">
-        <v>393.9927053094772</v>
+        <v>261.8966343066091</v>
       </c>
       <c r="V43" t="n">
-        <v>393.9927053094772</v>
+        <v>261.8966343066091</v>
       </c>
       <c r="W43" t="n">
         <v>261.8966343066091</v>
       </c>
       <c r="X43" t="n">
-        <v>261.8966343066091</v>
+        <v>129.8005633037411</v>
       </c>
       <c r="Y43" t="n">
-        <v>261.8966343066091</v>
+        <v>129.8005633037411</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>126.8122281627533</v>
+        <v>391.0043701684895</v>
       </c>
       <c r="C44" t="n">
-        <v>10.46200882342715</v>
+        <v>391.0043701684895</v>
       </c>
       <c r="D44" t="n">
-        <v>10.46200882342715</v>
+        <v>391.0043701684895</v>
       </c>
       <c r="E44" t="n">
-        <v>10.46200882342715</v>
+        <v>391.0043701684895</v>
       </c>
       <c r="F44" t="n">
-        <v>10.46200882342715</v>
+        <v>391.0043701684895</v>
       </c>
       <c r="G44" t="n">
-        <v>10.46200882342715</v>
+        <v>258.9082991656214</v>
       </c>
       <c r="H44" t="n">
-        <v>10.46200882342715</v>
+        <v>142.5580798262952</v>
       </c>
       <c r="I44" t="n">
         <v>10.46200882342715</v>
@@ -7651,49 +7651,49 @@
         <v>10.46200882342715</v>
       </c>
       <c r="K44" t="n">
-        <v>10.46200882342715</v>
+        <v>45.03830830957355</v>
       </c>
       <c r="L44" t="n">
-        <v>139.9293680133381</v>
+        <v>45.03830830957355</v>
       </c>
       <c r="M44" t="n">
-        <v>264.1657227915355</v>
+        <v>174.5056674994845</v>
       </c>
       <c r="N44" t="n">
-        <v>393.6330819814464</v>
+        <v>303.9730266893955</v>
       </c>
       <c r="O44" t="n">
-        <v>523.1004411713574</v>
+        <v>433.4403858793065</v>
       </c>
       <c r="P44" t="n">
-        <v>523.1004411713574</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="Q44" t="n">
-        <v>523.1004411713574</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="R44" t="n">
-        <v>523.1004411713574</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="S44" t="n">
-        <v>391.0043701684893</v>
+        <v>391.0043701684895</v>
       </c>
       <c r="T44" t="n">
-        <v>258.9082991656213</v>
+        <v>391.0043701684895</v>
       </c>
       <c r="U44" t="n">
-        <v>258.9082991656213</v>
+        <v>391.0043701684895</v>
       </c>
       <c r="V44" t="n">
-        <v>258.9082991656213</v>
+        <v>391.0043701684895</v>
       </c>
       <c r="W44" t="n">
-        <v>258.9082991656213</v>
+        <v>391.0043701684895</v>
       </c>
       <c r="X44" t="n">
-        <v>258.9082991656213</v>
+        <v>391.0043701684895</v>
       </c>
       <c r="Y44" t="n">
-        <v>126.8122281627533</v>
+        <v>391.0043701684895</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>153.9953870029581</v>
+        <v>10.46200882342715</v>
       </c>
       <c r="C45" t="n">
-        <v>153.9953870029581</v>
+        <v>10.46200882342715</v>
       </c>
       <c r="D45" t="n">
-        <v>88.49213440987432</v>
+        <v>10.46200882342715</v>
       </c>
       <c r="E45" t="n">
-        <v>88.49213440987432</v>
+        <v>10.46200882342715</v>
       </c>
       <c r="F45" t="n">
         <v>10.46200882342715</v>
@@ -7733,46 +7733,46 @@
         <v>135.8195688812646</v>
       </c>
       <c r="L45" t="n">
-        <v>265.2869280711755</v>
+        <v>265.2869280711756</v>
       </c>
       <c r="M45" t="n">
-        <v>265.2869280711755</v>
+        <v>393.6330819814465</v>
       </c>
       <c r="N45" t="n">
-        <v>265.2869280711755</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="O45" t="n">
-        <v>324.2385234681171</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="P45" t="n">
-        <v>453.7058826580281</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="Q45" t="n">
-        <v>523.1004411713574</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="R45" t="n">
-        <v>523.1004411713574</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="S45" t="n">
-        <v>418.1875290086941</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="T45" t="n">
-        <v>286.0914580058261</v>
+        <v>391.0043701684895</v>
       </c>
       <c r="U45" t="n">
-        <v>153.9953870029581</v>
+        <v>391.0043701684895</v>
       </c>
       <c r="V45" t="n">
-        <v>153.9953870029581</v>
+        <v>274.6541508291633</v>
       </c>
       <c r="W45" t="n">
-        <v>153.9953870029581</v>
+        <v>142.5580798262952</v>
       </c>
       <c r="X45" t="n">
-        <v>153.9953870029581</v>
+        <v>142.5580798262952</v>
       </c>
       <c r="Y45" t="n">
-        <v>153.9953870029581</v>
+        <v>10.46200882342715</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>10.46200882342715</v>
+        <v>126.8122281627534</v>
       </c>
       <c r="C46" t="n">
-        <v>10.46200882342715</v>
+        <v>126.8122281627534</v>
       </c>
       <c r="D46" t="n">
-        <v>10.46200882342715</v>
+        <v>45.20002113708553</v>
       </c>
       <c r="E46" t="n">
-        <v>10.46200882342715</v>
+        <v>45.20002113708553</v>
       </c>
       <c r="F46" t="n">
-        <v>10.46200882342715</v>
+        <v>45.20002113708553</v>
       </c>
       <c r="G46" t="n">
-        <v>10.46200882342715</v>
+        <v>45.20002113708553</v>
       </c>
       <c r="H46" t="n">
         <v>10.46200882342715</v>
@@ -7809,49 +7809,49 @@
         <v>10.46200882342715</v>
       </c>
       <c r="K46" t="n">
-        <v>55.55640609797626</v>
+        <v>55.55640609797632</v>
       </c>
       <c r="L46" t="n">
-        <v>150.0117252878624</v>
+        <v>150.0117252878625</v>
       </c>
       <c r="M46" t="n">
         <v>256.3409576622578</v>
       </c>
       <c r="N46" t="n">
-        <v>367.1730024998672</v>
+        <v>367.1730024998673</v>
       </c>
       <c r="O46" t="n">
-        <v>458.6534733169397</v>
+        <v>458.6534733169398</v>
       </c>
       <c r="P46" t="n">
-        <v>523.1004411713574</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="Q46" t="n">
-        <v>517.330023159676</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="R46" t="n">
-        <v>406.7502218320312</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="S46" t="n">
-        <v>274.6541508291632</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="T46" t="n">
-        <v>274.6541508291632</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="U46" t="n">
-        <v>274.6541508291632</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="V46" t="n">
-        <v>142.5580798262952</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="W46" t="n">
-        <v>10.46200882342715</v>
+        <v>391.0043701684895</v>
       </c>
       <c r="X46" t="n">
-        <v>10.46200882342715</v>
+        <v>258.9082991656214</v>
       </c>
       <c r="Y46" t="n">
-        <v>10.46200882342715</v>
+        <v>126.8122281627534</v>
       </c>
     </row>
   </sheetData>
@@ -9169,19 +9169,19 @@
         <v>254.8266749522162</v>
       </c>
       <c r="L17" t="n">
-        <v>270.5032388772229</v>
+        <v>269.0997308405669</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>265.0830571345084</v>
       </c>
       <c r="N17" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>264.8350353289224</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P17" t="n">
-        <v>264.5663116258493</v>
+        <v>265.9698196625052</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>172.5782628815947</v>
       </c>
       <c r="L18" t="n">
         <v>173.2912036871099</v>
@@ -9254,10 +9254,10 @@
         <v>176.870857829254</v>
       </c>
       <c r="N18" t="n">
-        <v>166.078535990569</v>
+        <v>164.675027953913</v>
       </c>
       <c r="O18" t="n">
-        <v>175.9295603150242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9403,22 +9403,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>253.4231669155603</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L20" t="n">
-        <v>270.503238877223</v>
+        <v>269.0997308405669</v>
       </c>
       <c r="M20" t="n">
-        <v>230.3462332272727</v>
+        <v>265.0830571345084</v>
       </c>
       <c r="N20" t="n">
-        <v>229.4130635965909</v>
+        <v>264.1498875038266</v>
       </c>
       <c r="O20" t="n">
-        <v>264.8350353289225</v>
+        <v>264.8350353289224</v>
       </c>
       <c r="P20" t="n">
-        <v>265.9698196625053</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9485,22 +9485,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>173.29120368711</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>176.8708578292541</v>
+        <v>176.870857829254</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>166.078535990569</v>
       </c>
       <c r="O21" t="n">
-        <v>175.9295603150242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>167.3077232849099</v>
       </c>
       <c r="Q21" t="n">
-        <v>174.7185979932573</v>
+        <v>174.7185979932572</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9567,10 +9567,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M22" t="n">
-        <v>173.6626078548408</v>
+        <v>173.6626078548407</v>
       </c>
       <c r="N22" t="n">
-        <v>162.422368372469</v>
+        <v>162.4223683724689</v>
       </c>
       <c r="O22" t="n">
         <v>163.0416663658825</v>
@@ -9640,7 +9640,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>228.2124645272262</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L23" t="n">
         <v>401.2783491700623</v>
@@ -9655,7 +9655,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>231.2329957552695</v>
+        <v>239.3556092375152</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9719,10 +9719,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>304.0663139799492</v>
       </c>
       <c r="M24" t="n">
         <v>307.6459681220933</v>
@@ -9731,13 +9731,13 @@
         <v>296.8536462834084</v>
       </c>
       <c r="O24" t="n">
-        <v>308.1081786445195</v>
+        <v>174.7970297295291</v>
       </c>
       <c r="P24" t="n">
-        <v>222.7034770878069</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9880,13 +9880,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>365.4816585509693</v>
+        <v>401.2783491700623</v>
       </c>
       <c r="M26" t="n">
         <v>395.8581674273478</v>
       </c>
       <c r="N26" t="n">
-        <v>394.9249977966659</v>
+        <v>359.128307177573</v>
       </c>
       <c r="O26" t="n">
         <v>230.0982114216867</v>
@@ -9959,10 +9959,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>227.2834494533509</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>230.863103595495</v>
       </c>
       <c r="N27" t="n">
         <v>296.8536462834084</v>
@@ -10114,16 +10114,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>303.1586863110882</v>
       </c>
       <c r="L29" t="n">
         <v>401.2783491700623</v>
       </c>
       <c r="M29" t="n">
-        <v>230.3462332272727</v>
+        <v>395.8581674273478</v>
       </c>
       <c r="N29" t="n">
-        <v>373.9382715365894</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10196,13 +10196,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>297.3789631031785</v>
+        <v>304.0663139799493</v>
       </c>
       <c r="M30" t="n">
-        <v>307.6459681220933</v>
+        <v>307.6459681220934</v>
       </c>
       <c r="N30" t="n">
-        <v>296.8536462834084</v>
+        <v>220.07078175681</v>
       </c>
       <c r="O30" t="n">
         <v>308.1081786445195</v>
@@ -10211,7 +10211,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10354,13 +10354,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>235.7664149699872</v>
+        <v>401.2783491700623</v>
       </c>
       <c r="M32" t="n">
-        <v>374.8714411672711</v>
+        <v>374.8714411672713</v>
       </c>
       <c r="N32" t="n">
-        <v>394.9249977966659</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>307.6459681220933</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>296.8536462834084</v>
+        <v>258.9589179186655</v>
       </c>
       <c r="O33" t="n">
         <v>308.1081786445195</v>
       </c>
       <c r="P33" t="n">
-        <v>292.7989907376345</v>
+        <v>299.4863416144053</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10594,13 +10594,13 @@
         <v>401.2783491700623</v>
       </c>
       <c r="M35" t="n">
-        <v>395.8581674273478</v>
+        <v>374.8714411672713</v>
       </c>
       <c r="N35" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>359.8134550026688</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10670,22 +10670,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>304.0663139799493</v>
       </c>
       <c r="M36" t="n">
-        <v>230.863103595495</v>
+        <v>307.6459681220934</v>
       </c>
       <c r="N36" t="n">
-        <v>296.8536462834084</v>
+        <v>290.1662954066376</v>
       </c>
       <c r="O36" t="n">
-        <v>308.1081786445195</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>299.4863416144053</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10831,10 +10831,10 @@
         <v>401.2783491700623</v>
       </c>
       <c r="M38" t="n">
-        <v>230.3462332272727</v>
+        <v>374.8714411672713</v>
       </c>
       <c r="N38" t="n">
-        <v>373.9382715365894</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10904,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>226.5705086478357</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>304.0663139799492</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>230.863103595495</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>296.8536462834084</v>
       </c>
       <c r="O39" t="n">
         <v>308.1081786445195</v>
@@ -11068,16 +11068,16 @@
         <v>366.5415252628266</v>
       </c>
       <c r="M41" t="n">
-        <v>291.9913370304394</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N41" t="n">
-        <v>229.4130635965909</v>
+        <v>360.1881738894303</v>
       </c>
       <c r="O41" t="n">
         <v>360.8733217145261</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>252.6687016818099</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>269.3294900727136</v>
+        <v>268.1969594872186</v>
       </c>
       <c r="M42" t="n">
-        <v>267.6253013747429</v>
+        <v>272.9091442148577</v>
       </c>
       <c r="N42" t="n">
-        <v>262.1168223761726</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>273.3713547372838</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>264.7495177071696</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11299,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>255.0154060814921</v>
       </c>
       <c r="L44" t="n">
-        <v>366.5415252628266</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M44" t="n">
-        <v>355.8375006799973</v>
+        <v>361.1213435201121</v>
       </c>
       <c r="N44" t="n">
-        <v>360.1881738894302</v>
+        <v>360.1881738894303</v>
       </c>
       <c r="O44" t="n">
         <v>360.8733217145261</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11381,22 +11381,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>269.3294900727135</v>
+        <v>269.3294900727136</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>271.7766136293627</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>262.1168223761726</v>
       </c>
       <c r="O45" t="n">
-        <v>202.1433105019612</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>264.7495177071696</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>360.4643498375977</v>
+        <v>360.4643498375978</v>
       </c>
       <c r="C14" t="n">
         <v>343.0033999451247</v>
@@ -23503,7 +23503,7 @@
         <v>332.4135497948001</v>
       </c>
       <c r="E14" t="n">
-        <v>359.6608782463789</v>
+        <v>359.660878246379</v>
       </c>
       <c r="F14" t="n">
         <v>384.6065539158286</v>
@@ -23557,7 +23557,7 @@
         <v>305.482766644252</v>
       </c>
       <c r="W14" t="n">
-        <v>326.9714768915301</v>
+        <v>326.9714768915302</v>
       </c>
       <c r="X14" t="n">
         <v>347.4616088525862</v>
@@ -23709,7 +23709,7 @@
         <v>205.6760976023986</v>
       </c>
       <c r="U16" t="n">
-        <v>264.049537530608</v>
+        <v>264.0495375306081</v>
       </c>
       <c r="V16" t="n">
         <v>229.8681514979451</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>258.6003849048298</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C17" t="n">
         <v>275.8762589195925</v>
@@ -23752,7 +23752,7 @@
         <v>250.0781692643521</v>
       </c>
       <c r="I17" t="n">
-        <v>86.34243281175515</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>60.4724850897346</v>
+        <v>25.73566118249893</v>
       </c>
       <c r="S17" t="n">
-        <v>119.6234367348303</v>
+        <v>89.02724223733711</v>
       </c>
       <c r="T17" t="n">
         <v>133.6992167127163</v>
       </c>
       <c r="U17" t="n">
-        <v>161.9490200564214</v>
+        <v>127.2121961491858</v>
       </c>
       <c r="V17" t="n">
-        <v>207.7594311212267</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W17" t="n">
         <v>259.8443358659979</v>
       </c>
       <c r="X17" t="n">
-        <v>280.334467827054</v>
+        <v>245.5976439198183</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1044818974028</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="18">
@@ -23813,19 +23813,19 @@
         <v>77.13655079845226</v>
       </c>
       <c r="C18" t="n">
-        <v>52.71567163940749</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D18" t="n">
-        <v>23.31160880598799</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E18" t="n">
-        <v>68.24844760398587</v>
+        <v>37.65225310649272</v>
       </c>
       <c r="F18" t="n">
-        <v>55.6725795419688</v>
+        <v>20.93575563473313</v>
       </c>
       <c r="G18" t="n">
-        <v>47.94688431179556</v>
+        <v>13.21006040455988</v>
       </c>
       <c r="H18" t="n">
         <v>22.83881138508139</v>
@@ -23861,7 +23861,7 @@
         <v>10.76120130122806</v>
       </c>
       <c r="S18" t="n">
-        <v>47.54971434518706</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T18" t="n">
         <v>110.7680958434065</v>
@@ -23876,10 +23876,10 @@
         <v>162.2983503095045</v>
       </c>
       <c r="X18" t="n">
-        <v>81.63952844482671</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y18" t="n">
-        <v>116.2860629258893</v>
+        <v>81.54923901865361</v>
       </c>
     </row>
     <row r="19">
@@ -23901,7 +23901,7 @@
         <v>57.03732979515409</v>
       </c>
       <c r="F19" t="n">
-        <v>25.428220674023</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G19" t="n">
         <v>78.59434650704368</v>
@@ -23910,7 +23910,7 @@
         <v>72.8305396560245</v>
       </c>
       <c r="I19" t="n">
-        <v>66.05384207584321</v>
+        <v>31.31701816860753</v>
       </c>
       <c r="J19" t="n">
         <v>3.962547265257697</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>53.15993461851873</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S19" t="n">
-        <v>134.6199651855572</v>
+        <v>104.023770688064</v>
       </c>
       <c r="T19" t="n">
-        <v>138.5489565768664</v>
+        <v>103.8121326696308</v>
       </c>
       <c r="U19" t="n">
-        <v>162.1855725978401</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V19" t="n">
         <v>162.7410104724129</v>
@@ -23977,16 +23977,16 @@
         <v>265.2864087692679</v>
       </c>
       <c r="E20" t="n">
-        <v>261.9375427233534</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F20" t="n">
-        <v>282.7425889830606</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G20" t="n">
         <v>325.90610466372</v>
       </c>
       <c r="H20" t="n">
-        <v>215.3413453571163</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I20" t="n">
         <v>121.0792567189908</v>
@@ -24016,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>60.4724850897346</v>
+        <v>29.87629059224145</v>
       </c>
       <c r="S20" t="n">
-        <v>119.6234367348303</v>
+        <v>84.88661282759459</v>
       </c>
       <c r="T20" t="n">
-        <v>133.6992167127163</v>
+        <v>98.96239280548062</v>
       </c>
       <c r="U20" t="n">
         <v>161.9490200564214</v>
       </c>
       <c r="V20" t="n">
-        <v>238.3556256187198</v>
+        <v>203.6188017114842</v>
       </c>
       <c r="W20" t="n">
-        <v>225.1075119587622</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X20" t="n">
         <v>280.334467827054</v>
@@ -24098,22 +24098,22 @@
         <v>10.76120130122806</v>
       </c>
       <c r="S21" t="n">
-        <v>47.54971434518696</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T21" t="n">
-        <v>80.17190134591327</v>
+        <v>76.03127193617085</v>
       </c>
       <c r="U21" t="n">
-        <v>101.8079253223239</v>
+        <v>105.9485547320666</v>
       </c>
       <c r="V21" t="n">
-        <v>143.4039542980102</v>
+        <v>108.6671303907745</v>
       </c>
       <c r="W21" t="n">
-        <v>162.2983503095045</v>
+        <v>127.5615264022689</v>
       </c>
       <c r="X21" t="n">
-        <v>81.63952844482661</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y21" t="n">
         <v>116.2860629258893</v>
@@ -24138,10 +24138,10 @@
         <v>57.03732979515409</v>
       </c>
       <c r="F22" t="n">
-        <v>25.42822067402291</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G22" t="n">
-        <v>43.85752259980789</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H22" t="n">
         <v>72.8305396560245</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>87.89675852575441</v>
+        <v>53.15993461851873</v>
       </c>
       <c r="S22" t="n">
-        <v>134.6199651855572</v>
+        <v>99.88314127832152</v>
       </c>
       <c r="T22" t="n">
-        <v>103.8121326696306</v>
+        <v>107.9527620793733</v>
       </c>
       <c r="U22" t="n">
         <v>196.9223965050758</v>
       </c>
       <c r="V22" t="n">
-        <v>162.7410104724129</v>
+        <v>128.0041865651773</v>
       </c>
       <c r="W22" t="n">
         <v>197.1263654851759</v>
@@ -24195,7 +24195,7 @@
         <v>136.3130225376221</v>
       </c>
       <c r="Y22" t="n">
-        <v>94.45119659344394</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="23">
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>160.0615436813225</v>
+        <v>292.6449617747966</v>
       </c>
       <c r="C23" t="n">
-        <v>275.1840118823235</v>
+        <v>109.6720776822484</v>
       </c>
       <c r="D23" t="n">
         <v>264.594161731999</v>
       </c>
       <c r="E23" t="n">
-        <v>291.8414901835778</v>
+        <v>126.3295559835027</v>
       </c>
       <c r="F23" t="n">
-        <v>316.7871658530274</v>
+        <v>151.2752316529524</v>
       </c>
       <c r="G23" t="n">
         <v>325.213857626451</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>59.78023805246565</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>118.9311896975613</v>
       </c>
       <c r="T23" t="n">
         <v>133.0069696754473</v>
@@ -24271,10 +24271,10 @@
         <v>259.152088828729</v>
       </c>
       <c r="X23" t="n">
-        <v>114.13028658971</v>
+        <v>279.642220789785</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.6371245672945</v>
+        <v>150.3661471239435</v>
       </c>
     </row>
     <row r="24">
@@ -24287,22 +24287,22 @@
         <v>76.44430376118331</v>
       </c>
       <c r="C24" t="n">
-        <v>82.61961909963171</v>
+        <v>60.21888431856398</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>57.35618567595472</v>
       </c>
       <c r="E24" t="n">
         <v>67.55620056671691</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>54.98033250469985</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>47.2546372745266</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>22.14656434781243</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24332,22 +24332,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.0689542639591</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>81.59429121515379</v>
       </c>
       <c r="T24" t="n">
-        <v>110.0758488061376</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>135.8525021922908</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>142.7117072607412</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>23.96627551410467</v>
+        <v>161.6061032722356</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24363,31 +24363,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>89.74310029325326</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>77.1579412099438</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>58.52659312952832</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>56.34508275788514</v>
       </c>
       <c r="F25" t="n">
         <v>55.33216813424721</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>77.90209946977473</v>
       </c>
       <c r="H25" t="n">
-        <v>72.13829261875554</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>49.07018065831665</v>
+        <v>65.36159503857425</v>
       </c>
       <c r="J25" t="n">
-        <v>3.270300227988741</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>87.20451148848545</v>
       </c>
       <c r="S25" t="n">
-        <v>133.9277181482882</v>
+        <v>35.89817469112886</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>196.2301494678069</v>
+        <v>30.71821526773181</v>
       </c>
       <c r="V25" t="n">
         <v>162.048763435144</v>
       </c>
       <c r="W25" t="n">
-        <v>196.434118447907</v>
+        <v>30.92218424783192</v>
       </c>
       <c r="X25" t="n">
         <v>135.6207755003531</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>128.4957734634108</v>
       </c>
     </row>
     <row r="26">
@@ -24445,25 +24445,25 @@
         <v>292.6449617747966</v>
       </c>
       <c r="C26" t="n">
-        <v>129.4011002388976</v>
+        <v>275.1840118823235</v>
       </c>
       <c r="D26" t="n">
-        <v>99.08222753192393</v>
+        <v>264.594161731999</v>
       </c>
       <c r="E26" t="n">
-        <v>126.3295559835028</v>
+        <v>291.8414901835778</v>
       </c>
       <c r="F26" t="n">
-        <v>316.7871658530274</v>
+        <v>151.2752316529524</v>
       </c>
       <c r="G26" t="n">
-        <v>325.213857626451</v>
+        <v>159.701923426376</v>
       </c>
       <c r="H26" t="n">
-        <v>83.87398802700812</v>
+        <v>83.87398802700804</v>
       </c>
       <c r="I26" t="n">
-        <v>120.3870096817219</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>59.78023805246566</v>
+        <v>34.38433609076147</v>
       </c>
       <c r="S26" t="n">
         <v>118.9311896975613</v>
       </c>
       <c r="T26" t="n">
-        <v>133.0069696754474</v>
+        <v>133.0069696754473</v>
       </c>
       <c r="U26" t="n">
         <v>161.2567730191525</v>
@@ -24511,7 +24511,7 @@
         <v>279.642220789785</v>
       </c>
       <c r="Y26" t="n">
-        <v>296.1490587673696</v>
+        <v>296.1490587673695</v>
       </c>
     </row>
     <row r="27">
@@ -24521,25 +24521,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>76.44430376118332</v>
+        <v>76.44430376118331</v>
       </c>
       <c r="C27" t="n">
-        <v>82.61961909963172</v>
+        <v>82.61961909963171</v>
       </c>
       <c r="D27" t="n">
-        <v>57.35618567595473</v>
+        <v>57.35618567595472</v>
       </c>
       <c r="E27" t="n">
-        <v>30.05033712367709</v>
+        <v>67.55620056671691</v>
       </c>
       <c r="F27" t="n">
-        <v>54.98033250469986</v>
+        <v>54.98033250469985</v>
       </c>
       <c r="G27" t="n">
-        <v>47.25463727452662</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>22.14656434781244</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24569,19 +24569,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10.06895426395911</v>
+        <v>10.0689542639591</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>11.63665187562835</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>135.8525021922908</v>
       </c>
       <c r="V27" t="n">
-        <v>142.7117072607413</v>
+        <v>142.7117072607412</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>115.5938158886203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.74310029325328</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>77.15794120994381</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>58.52659312952834</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>56.34508275788515</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>55.33216813424723</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24624,7 +24624,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>3.270300227988756</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>87.20451148848547</v>
+        <v>87.20451148848545</v>
       </c>
       <c r="S28" t="n">
         <v>133.9277181482882</v>
@@ -24657,19 +24657,19 @@
         <v>137.8567095395975</v>
       </c>
       <c r="U28" t="n">
-        <v>30.71821526773186</v>
+        <v>196.2301494678069</v>
       </c>
       <c r="V28" t="n">
-        <v>66.15590471874754</v>
+        <v>162.048763435144</v>
       </c>
       <c r="W28" t="n">
-        <v>30.92218424783198</v>
+        <v>196.434118447907</v>
       </c>
       <c r="X28" t="n">
         <v>135.6207755003531</v>
       </c>
       <c r="Y28" t="n">
-        <v>128.4957734634108</v>
+        <v>41.95423209971048</v>
       </c>
     </row>
     <row r="29">
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>292.6449617747966</v>
+        <v>292.6449617747965</v>
       </c>
       <c r="C29" t="n">
-        <v>211.5721642309085</v>
+        <v>109.6720776822484</v>
       </c>
       <c r="D29" t="n">
-        <v>264.594161731999</v>
+        <v>118.8112500885728</v>
       </c>
       <c r="E29" t="n">
-        <v>291.8414901835778</v>
+        <v>291.8414901835777</v>
       </c>
       <c r="F29" t="n">
         <v>316.7871658530274</v>
@@ -24727,22 +24727,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>59.78023805246565</v>
+        <v>59.78023805246563</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>118.9311896975613</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>133.0069696754473</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>161.2567730191524</v>
       </c>
       <c r="V29" t="n">
-        <v>72.15144438137585</v>
+        <v>72.15144438137577</v>
       </c>
       <c r="W29" t="n">
-        <v>259.152088828729</v>
+        <v>93.64015462865387</v>
       </c>
       <c r="X29" t="n">
         <v>279.642220789785</v>
@@ -24761,22 +24761,22 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>82.61961909963171</v>
+        <v>82.61961909963169</v>
       </c>
       <c r="D30" t="n">
-        <v>57.35618567595472</v>
+        <v>57.35618567595471</v>
       </c>
       <c r="E30" t="n">
-        <v>67.55620056671691</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>54.98033250469985</v>
+        <v>54.98033250469983</v>
       </c>
       <c r="G30" t="n">
-        <v>47.2546372745266</v>
+        <v>47.25463727452659</v>
       </c>
       <c r="H30" t="n">
-        <v>22.14656434781243</v>
+        <v>22.14656434781242</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>10.0689542639591</v>
+        <v>10.06895426395909</v>
       </c>
       <c r="S30" t="n">
-        <v>81.59429121515379</v>
+        <v>81.59429121515377</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>110.0758488061376</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>135.8525021922908</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>37.27752182063932</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>100.055856363731</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>115.5938158886203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24837,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.74310029325326</v>
+        <v>89.74310029325325</v>
       </c>
       <c r="C31" t="n">
-        <v>77.1579412099438</v>
+        <v>77.15794120994379</v>
       </c>
       <c r="D31" t="n">
-        <v>58.52659312952832</v>
+        <v>58.52659312952831</v>
       </c>
       <c r="E31" t="n">
-        <v>56.34508275788514</v>
+        <v>56.34508275788512</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>55.3321681342472</v>
       </c>
       <c r="G31" t="n">
-        <v>77.90209946977473</v>
+        <v>77.90209946977471</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>72.13829261875553</v>
       </c>
       <c r="I31" t="n">
-        <v>65.36159503857425</v>
+        <v>65.36159503857424</v>
       </c>
       <c r="J31" t="n">
-        <v>3.270300227988741</v>
+        <v>3.270300227988727</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>87.20451148848544</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>133.9277181482882</v>
       </c>
       <c r="T31" t="n">
-        <v>137.8567095395975</v>
+        <v>137.8567095395974</v>
       </c>
       <c r="U31" t="n">
-        <v>30.71821526773184</v>
+        <v>145.5886818231383</v>
       </c>
       <c r="V31" t="n">
-        <v>33.84467378134431</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>196.434118447907</v>
+        <v>30.92218424783186</v>
       </c>
       <c r="X31" t="n">
-        <v>135.6207755003531</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>128.4957734634108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,25 +24919,25 @@
         <v>291.9527147375276</v>
       </c>
       <c r="C32" t="n">
-        <v>187.7968442168252</v>
+        <v>274.4917648450545</v>
       </c>
       <c r="D32" t="n">
-        <v>98.38998049465494</v>
+        <v>263.90191469473</v>
       </c>
       <c r="E32" t="n">
-        <v>125.6373089462338</v>
+        <v>291.1492431463088</v>
       </c>
       <c r="F32" t="n">
-        <v>150.5829846156834</v>
+        <v>316.0949188157584</v>
       </c>
       <c r="G32" t="n">
-        <v>324.521610589182</v>
+        <v>159.009676389107</v>
       </c>
       <c r="H32" t="n">
-        <v>248.6936751898141</v>
+        <v>83.18174098973907</v>
       </c>
       <c r="I32" t="n">
-        <v>119.6947626444529</v>
+        <v>58.95358209942244</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>59.08799101519668</v>
       </c>
       <c r="S32" t="n">
-        <v>118.2389426602924</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>132.3147226381784</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>160.5645259818835</v>
@@ -24995,25 +24995,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>75.75205672391435</v>
+        <v>75.75205672391434</v>
       </c>
       <c r="C33" t="n">
-        <v>16.81594659540018</v>
+        <v>81.92737206236274</v>
       </c>
       <c r="D33" t="n">
-        <v>56.66393863868576</v>
+        <v>56.66393863868575</v>
       </c>
       <c r="E33" t="n">
-        <v>66.86395352944795</v>
+        <v>66.86395352944794</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>54.28808546743088</v>
       </c>
       <c r="G33" t="n">
-        <v>46.56239023725765</v>
+        <v>46.56239023725763</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>21.45431731054346</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25043,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.376707226690144</v>
+        <v>9.376707226690129</v>
       </c>
       <c r="S33" t="n">
-        <v>80.90204417788483</v>
+        <v>80.90204417788482</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25058,13 +25058,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>160.9138562349666</v>
+        <v>20.15031741620254</v>
       </c>
       <c r="X33" t="n">
-        <v>114.9918582775245</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>114.9015688513514</v>
       </c>
     </row>
     <row r="34">
@@ -25074,31 +25074,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>89.05085325598431</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>76.46569417267484</v>
+        <v>76.46569417267483</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>57.83434609225935</v>
       </c>
       <c r="E34" t="n">
-        <v>55.65283572061618</v>
+        <v>55.65283572061617</v>
       </c>
       <c r="F34" t="n">
-        <v>13.97637166909055</v>
+        <v>54.63992109697824</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>71.44604558148659</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>64.66934800130529</v>
+        <v>7.608647016008078</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>2.578053190719771</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>86.5122644512165</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>133.2354711110193</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>137.1644625023285</v>
       </c>
       <c r="U34" t="n">
         <v>195.5379024305379</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>161.356516397875</v>
       </c>
       <c r="W34" t="n">
-        <v>30.22993721056298</v>
+        <v>195.741871410638</v>
       </c>
       <c r="X34" t="n">
         <v>134.9285284630841</v>
       </c>
       <c r="Y34" t="n">
-        <v>127.8035264261418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25159,22 +25159,22 @@
         <v>274.4917648450545</v>
       </c>
       <c r="D35" t="n">
-        <v>237.8137656957568</v>
+        <v>263.90191469473</v>
       </c>
       <c r="E35" t="n">
-        <v>125.6373089462338</v>
+        <v>291.1492431463088</v>
       </c>
       <c r="F35" t="n">
-        <v>150.5829846156834</v>
+        <v>316.0949188157584</v>
       </c>
       <c r="G35" t="n">
-        <v>159.009676389107</v>
+        <v>324.521610589182</v>
       </c>
       <c r="H35" t="n">
         <v>248.6936751898141</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>119.6947626444529</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,10 +25201,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>59.08799101519669</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>118.2389426602924</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>132.3147226381784</v>
@@ -25216,13 +25216,13 @@
         <v>236.9711315441819</v>
       </c>
       <c r="W35" t="n">
-        <v>258.45984179146</v>
+        <v>92.94790759138493</v>
       </c>
       <c r="X35" t="n">
-        <v>278.949973752516</v>
+        <v>113.438039552441</v>
       </c>
       <c r="Y35" t="n">
-        <v>295.4568117301006</v>
+        <v>161.4888995620884</v>
       </c>
     </row>
     <row r="36">
@@ -25232,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>75.75205672391434</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>22.68443891084931</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>66.86395352944795</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>54.28808546743089</v>
+        <v>54.28808546743088</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>46.56239023725763</v>
       </c>
       <c r="H36" t="n">
-        <v>21.45431731054347</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25280,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>9.376707226690129</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>80.90204417788482</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>109.3836017688686</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>142.0194602234723</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>160.9138562349666</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>68.40151002455943</v>
+        <v>114.9918582775245</v>
       </c>
       <c r="Y36" t="n">
         <v>114.9015688513514</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.05085325598431</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>35.03176172702075</v>
       </c>
       <c r="D37" t="n">
-        <v>57.83434609225937</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>54.63992109697826</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>77.20985243250577</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>71.44604558148659</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>64.66934800130529</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>86.5122644512165</v>
+        <v>86.51226445121648</v>
       </c>
       <c r="S37" t="n">
         <v>133.2354711110193</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>137.1644625023285</v>
       </c>
       <c r="U37" t="n">
         <v>195.5379024305379</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>161.356516397875</v>
       </c>
       <c r="W37" t="n">
-        <v>30.22993721056298</v>
+        <v>195.741871410638</v>
       </c>
       <c r="X37" t="n">
         <v>134.9285284630841</v>
       </c>
       <c r="Y37" t="n">
-        <v>84.21430836678002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>292.6449617747966</v>
+        <v>292.6449617747965</v>
       </c>
       <c r="C38" t="n">
-        <v>109.6720776822485</v>
+        <v>275.1840118823235</v>
       </c>
       <c r="D38" t="n">
-        <v>264.594161731999</v>
+        <v>118.8112500885728</v>
       </c>
       <c r="E38" t="n">
-        <v>291.8414901835778</v>
+        <v>291.8414901835777</v>
       </c>
       <c r="F38" t="n">
-        <v>316.7871658530274</v>
+        <v>151.2752316529523</v>
       </c>
       <c r="G38" t="n">
         <v>325.213857626451</v>
@@ -25438,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>59.78023805246565</v>
+        <v>59.78023805246563</v>
       </c>
       <c r="S38" t="n">
         <v>118.9311896975613</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>133.0069696754473</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>161.2567730191524</v>
       </c>
       <c r="V38" t="n">
-        <v>72.15144438137585</v>
+        <v>72.15144438137577</v>
       </c>
       <c r="W38" t="n">
-        <v>242.1209856798278</v>
+        <v>259.1520888287289</v>
       </c>
       <c r="X38" t="n">
-        <v>279.642220789785</v>
+        <v>114.1302865897099</v>
       </c>
       <c r="Y38" t="n">
         <v>296.1490587673695</v>
@@ -25469,25 +25469,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>76.44430376118331</v>
+        <v>76.44430376118329</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>82.61961909963169</v>
       </c>
       <c r="D39" t="n">
-        <v>57.35618567595472</v>
+        <v>57.35618567595471</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>67.5562005667169</v>
       </c>
       <c r="F39" t="n">
-        <v>54.98033250469985</v>
+        <v>54.98033250469983</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>47.25463727452659</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>22.14656434781242</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.0689542639591</v>
+        <v>10.06895426395909</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25526,19 +25526,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>135.8525021922908</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>27.23397021568941</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>161.6061032722356</v>
+        <v>105.205843817701</v>
       </c>
       <c r="X39" t="n">
-        <v>115.6841053147934</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>115.5938158886203</v>
       </c>
     </row>
     <row r="40">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>89.74310029325325</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>77.15794120994379</v>
       </c>
       <c r="D40" t="n">
-        <v>58.52659312952832</v>
+        <v>58.52659312952831</v>
       </c>
       <c r="E40" t="n">
-        <v>56.34508275788514</v>
+        <v>56.34508275788512</v>
       </c>
       <c r="F40" t="n">
-        <v>20.59015625385316</v>
+        <v>55.3321681342472</v>
       </c>
       <c r="G40" t="n">
-        <v>77.90209946977473</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>72.13829261875553</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>65.36159503857424</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>87.20451148848545</v>
+        <v>87.20451148848544</v>
       </c>
       <c r="S40" t="n">
-        <v>133.9277181482882</v>
+        <v>41.6619815421479</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>196.2301494678069</v>
+        <v>30.71821526773175</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>162.0487634351439</v>
       </c>
       <c r="W40" t="n">
-        <v>196.434118447907</v>
+        <v>30.92218424783186</v>
       </c>
       <c r="X40" t="n">
         <v>135.6207755003531</v>
       </c>
       <c r="Y40" t="n">
-        <v>128.4957734634108</v>
+        <v>128.4957734634107</v>
       </c>
     </row>
     <row r="41">
@@ -25642,10 +25642,10 @@
         <v>339.0566576789103</v>
       </c>
       <c r="G41" t="n">
-        <v>216.7082391594945</v>
+        <v>347.4833494523339</v>
       </c>
       <c r="H41" t="n">
-        <v>271.655414052966</v>
+        <v>140.8803037601266</v>
       </c>
       <c r="I41" t="n">
         <v>142.6565015076047</v>
@@ -25675,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>82.0497298783485</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>10.42557123060479</v>
+        <v>108.0636942558598</v>
       </c>
       <c r="T41" t="n">
         <v>155.2764615013302</v>
@@ -25690,13 +25690,13 @@
         <v>259.9328704073337</v>
       </c>
       <c r="W41" t="n">
-        <v>150.6464703617725</v>
+        <v>281.4215806546118</v>
       </c>
       <c r="X41" t="n">
-        <v>186.7249954697349</v>
+        <v>171.1366023228285</v>
       </c>
       <c r="Y41" t="n">
-        <v>318.4185505932524</v>
+        <v>187.643440300413</v>
       </c>
     </row>
     <row r="42">
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>98.71379558706614</v>
       </c>
       <c r="C42" t="n">
-        <v>104.8891109255146</v>
+        <v>104.8891109255145</v>
       </c>
       <c r="D42" t="n">
-        <v>9.62746998071411</v>
+        <v>79.62567750183756</v>
       </c>
       <c r="E42" t="n">
-        <v>89.82569239259976</v>
+        <v>89.82569239259975</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>77.24982433058268</v>
       </c>
       <c r="G42" t="n">
-        <v>69.52412910040945</v>
+        <v>69.52412910040944</v>
       </c>
       <c r="H42" t="n">
-        <v>44.41605617369528</v>
+        <v>44.41605617369527</v>
       </c>
       <c r="I42" t="n">
-        <v>21.5772447886139</v>
+        <v>10.25431068371757</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,25 +25754,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>32.33844608984195</v>
+        <v>32.33844608984194</v>
       </c>
       <c r="S42" t="n">
-        <v>103.8637830410366</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>132.3453406320204</v>
+        <v>1.570230339181023</v>
       </c>
       <c r="U42" t="n">
-        <v>27.34688372533427</v>
+        <v>27.34688372533424</v>
       </c>
       <c r="V42" t="n">
-        <v>164.9811990866241</v>
+        <v>34.20608879378472</v>
       </c>
       <c r="W42" t="n">
         <v>183.8755950981184</v>
       </c>
       <c r="X42" t="n">
-        <v>7.178486847836922</v>
+        <v>137.9535971406763</v>
       </c>
       <c r="Y42" t="n">
         <v>137.8633077145032</v>
@@ -25785,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>112.0125921191361</v>
+        <v>19.4072152374969</v>
       </c>
       <c r="C43" t="n">
-        <v>99.42743303582665</v>
+        <v>99.42743303582664</v>
       </c>
       <c r="D43" t="n">
-        <v>13.9146770361565</v>
+        <v>80.79608495541116</v>
       </c>
       <c r="E43" t="n">
-        <v>78.61457458376799</v>
+        <v>78.61457458376798</v>
       </c>
       <c r="F43" t="n">
-        <v>77.60165996013006</v>
+        <v>77.60165996013005</v>
       </c>
       <c r="G43" t="n">
         <v>100.1715912956576</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>94.40778444463838</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.63108686445709</v>
       </c>
       <c r="J43" t="n">
-        <v>25.53979205387159</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25842,16 +25842,16 @@
         <v>160.1262013654803</v>
       </c>
       <c r="U43" t="n">
-        <v>218.4996412936897</v>
+        <v>87.72453100085033</v>
       </c>
       <c r="V43" t="n">
         <v>184.3182552610268</v>
       </c>
       <c r="W43" t="n">
-        <v>87.92849998095045</v>
+        <v>218.7036102737898</v>
       </c>
       <c r="X43" t="n">
-        <v>157.890267326236</v>
+        <v>27.1151570333966</v>
       </c>
       <c r="Y43" t="n">
         <v>150.7652652892936</v>
@@ -25867,7 +25867,7 @@
         <v>314.9144536006794</v>
       </c>
       <c r="C44" t="n">
-        <v>182.2667865622735</v>
+        <v>297.4535037082064</v>
       </c>
       <c r="D44" t="n">
         <v>286.8636535578818</v>
@@ -25879,13 +25879,13 @@
         <v>339.0566576789103</v>
       </c>
       <c r="G44" t="n">
-        <v>347.4833494523339</v>
+        <v>216.7082391594945</v>
       </c>
       <c r="H44" t="n">
-        <v>271.655414052966</v>
+        <v>156.468696907033</v>
       </c>
       <c r="I44" t="n">
-        <v>142.6565015076047</v>
+        <v>11.88139121476536</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>82.0497298783485</v>
+        <v>82.04972987834849</v>
       </c>
       <c r="S44" t="n">
-        <v>10.42557123060482</v>
+        <v>10.42557123060476</v>
       </c>
       <c r="T44" t="n">
-        <v>24.50135120849083</v>
+        <v>155.2764615013302</v>
       </c>
       <c r="U44" t="n">
         <v>183.5262648450353</v>
@@ -25933,7 +25933,7 @@
         <v>301.9117126156679</v>
       </c>
       <c r="Y44" t="n">
-        <v>187.6434403004131</v>
+        <v>318.4185505932524</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>98.71379558706616</v>
+        <v>98.71379558706614</v>
       </c>
       <c r="C45" t="n">
-        <v>104.8891109255146</v>
+        <v>104.8891109255145</v>
       </c>
       <c r="D45" t="n">
-        <v>14.77745743468466</v>
+        <v>79.62567750183756</v>
       </c>
       <c r="E45" t="n">
-        <v>89.82569239259976</v>
+        <v>89.82569239259975</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>77.24982433058268</v>
       </c>
       <c r="G45" t="n">
-        <v>69.52412910040945</v>
+        <v>69.52412910040944</v>
       </c>
       <c r="H45" t="n">
-        <v>44.41605617369528</v>
+        <v>44.41605617369527</v>
       </c>
       <c r="I45" t="n">
-        <v>21.5772447886139</v>
+        <v>21.57724478861388</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>32.33844608984195</v>
+        <v>32.33844608984194</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>103.8637830410366</v>
       </c>
       <c r="T45" t="n">
-        <v>1.57023033918108</v>
+        <v>1.570230339181023</v>
       </c>
       <c r="U45" t="n">
-        <v>27.34688372533429</v>
+        <v>158.1219940181736</v>
       </c>
       <c r="V45" t="n">
-        <v>164.9811990866241</v>
+        <v>49.79448194069116</v>
       </c>
       <c r="W45" t="n">
-        <v>183.8755950981184</v>
+        <v>53.10048480527905</v>
       </c>
       <c r="X45" t="n">
         <v>137.9535971406763</v>
       </c>
       <c r="Y45" t="n">
-        <v>137.8633077145032</v>
+        <v>7.088197421663779</v>
       </c>
     </row>
     <row r="46">
@@ -26025,28 +26025,28 @@
         <v>112.0125921191361</v>
       </c>
       <c r="C46" t="n">
-        <v>99.42743303582665</v>
+        <v>99.42743303582664</v>
       </c>
       <c r="D46" t="n">
-        <v>80.79608495541117</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>78.61457458376799</v>
+        <v>78.61457458376798</v>
       </c>
       <c r="F46" t="n">
-        <v>77.60165996013006</v>
+        <v>77.60165996013005</v>
       </c>
       <c r="G46" t="n">
         <v>100.1715912956576</v>
       </c>
       <c r="H46" t="n">
-        <v>94.40778444463839</v>
+        <v>60.01715225411659</v>
       </c>
       <c r="I46" t="n">
-        <v>87.6310868644571</v>
+        <v>87.63108686445709</v>
       </c>
       <c r="J46" t="n">
-        <v>25.53979205387159</v>
+        <v>25.53979205387158</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,13 +26067,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>12.62994135732863</v>
+        <v>18.34265518889319</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.4740033143683</v>
       </c>
       <c r="S46" t="n">
-        <v>25.42209968133173</v>
+        <v>156.1972099741711</v>
       </c>
       <c r="T46" t="n">
         <v>160.1262013654803</v>
@@ -26082,16 +26082,16 @@
         <v>218.4996412936897</v>
       </c>
       <c r="V46" t="n">
-        <v>53.54314496818748</v>
+        <v>184.3182552610268</v>
       </c>
       <c r="W46" t="n">
-        <v>87.92849998095048</v>
+        <v>87.92849998095045</v>
       </c>
       <c r="X46" t="n">
-        <v>157.890267326236</v>
+        <v>27.1151570333966</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.7652652892936</v>
+        <v>19.99015499645424</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>499475.2153296164</v>
+        <v>499475.2153296163</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>594295.6364164903</v>
+        <v>594295.6364164904</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>594295.6364164902</v>
+        <v>594295.6364164904</v>
       </c>
     </row>
     <row r="12">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>716866.7963774086</v>
+      </c>
+      <c r="C2" t="n">
         <v>716866.7963774084</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>716866.7963774087</v>
       </c>
-      <c r="D2" t="n">
-        <v>716866.7963774084</v>
-      </c>
       <c r="E2" t="n">
-        <v>236672.7479546494</v>
+        <v>236672.7479546496</v>
       </c>
       <c r="F2" t="n">
-        <v>236672.7479546494</v>
+        <v>236672.7479546498</v>
       </c>
       <c r="G2" t="n">
-        <v>393853.5893618183</v>
+        <v>393853.5893618182</v>
       </c>
       <c r="H2" t="n">
         <v>393853.5893618183</v>
@@ -26337,25 +26337,25 @@
         <v>460092.0612638195</v>
       </c>
       <c r="J2" t="n">
-        <v>460092.0612638192</v>
+        <v>460092.0612638195</v>
       </c>
       <c r="K2" t="n">
+        <v>460092.0612638193</v>
+      </c>
+      <c r="L2" t="n">
+        <v>461495.8690306967</v>
+      </c>
+      <c r="M2" t="n">
+        <v>461495.8690306968</v>
+      </c>
+      <c r="N2" t="n">
         <v>460092.0612638195</v>
       </c>
-      <c r="L2" t="n">
-        <v>461495.8690306964</v>
-      </c>
-      <c r="M2" t="n">
-        <v>461495.8690306972</v>
-      </c>
-      <c r="N2" t="n">
-        <v>460092.0612638193</v>
-      </c>
       <c r="O2" t="n">
-        <v>396524.4956399847</v>
+        <v>396524.4956399848</v>
       </c>
       <c r="P2" t="n">
-        <v>396524.4956399848</v>
+        <v>396524.495639985</v>
       </c>
     </row>
     <row r="3">
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>63222.55520104048</v>
+        <v>63222.55520104047</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>35329.64573399726</v>
+        <v>35329.64573399727</v>
       </c>
       <c r="J3" t="n">
         <v>17815.59346070628</v>
@@ -26487,7 +26487,7 @@
         <v>9627.484420745543</v>
       </c>
       <c r="H5" t="n">
-        <v>9627.48442074555</v>
+        <v>9627.484420745543</v>
       </c>
       <c r="I5" t="n">
         <v>17636.80764272634</v>
@@ -26499,10 +26499,10 @@
         <v>17636.80764272634</v>
       </c>
       <c r="L5" t="n">
-        <v>17695.0041589025</v>
+        <v>17695.00415890251</v>
       </c>
       <c r="M5" t="n">
-        <v>17695.0041589025</v>
+        <v>17695.00415890251</v>
       </c>
       <c r="N5" t="n">
         <v>17636.80764272634</v>
@@ -26511,7 +26511,7 @@
         <v>13652.63484085627</v>
       </c>
       <c r="P5" t="n">
-        <v>13652.63484085626</v>
+        <v>13652.63484085627</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>241589.946381588</v>
+        <v>241545.810602907</v>
       </c>
       <c r="C6" t="n">
-        <v>241589.9463815881</v>
+        <v>241545.8106029068</v>
       </c>
       <c r="D6" t="n">
-        <v>241589.946381588</v>
+        <v>241545.8106029071</v>
       </c>
       <c r="E6" t="n">
-        <v>88568.81941667429</v>
+        <v>74804.8536830574</v>
       </c>
       <c r="F6" t="n">
-        <v>106384.4128773806</v>
+        <v>92620.44714376384</v>
       </c>
       <c r="G6" t="n">
-        <v>92178.39283857445</v>
+        <v>82905.30828801927</v>
       </c>
       <c r="H6" t="n">
-        <v>155400.9480396149</v>
+        <v>146127.8634890598</v>
       </c>
       <c r="I6" t="n">
-        <v>141791.2230991731</v>
+        <v>134410.6663172467</v>
       </c>
       <c r="J6" t="n">
-        <v>159305.2753724639</v>
+        <v>151924.7185905376</v>
       </c>
       <c r="K6" t="n">
-        <v>177120.8688331704</v>
+        <v>169740.3120512437</v>
       </c>
       <c r="L6" t="n">
-        <v>123295.2584864752</v>
+        <v>115954.8104978883</v>
       </c>
       <c r="M6" t="n">
-        <v>177550.7689367169</v>
+        <v>170210.3209481293</v>
       </c>
       <c r="N6" t="n">
-        <v>177120.8688331703</v>
+        <v>169740.3120512439</v>
       </c>
       <c r="O6" t="n">
-        <v>157234.6305043523</v>
+        <v>148037.8575617449</v>
       </c>
       <c r="P6" t="n">
-        <v>157234.6305043524</v>
+        <v>148037.857561745</v>
       </c>
     </row>
   </sheetData>
@@ -26697,7 +26697,7 @@
         <v>22.26949182588285</v>
       </c>
       <c r="F2" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="G2" t="n">
         <v>89.39663285141508</v>
@@ -26709,25 +26709,25 @@
         <v>90.08887988868403</v>
       </c>
       <c r="J2" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="K2" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="L2" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="M2" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="N2" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="O2" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="P2" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
     </row>
     <row r="3">
@@ -26804,34 +26804,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>34.73682390723568</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="H4" t="n">
-        <v>34.73682390723579</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="I4" t="n">
         <v>165.511934200075</v>
       </c>
       <c r="J4" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="K4" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="L4" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="M4" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="N4" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="O4" t="n">
         <v>130.7751102928394</v>
       </c>
       <c r="P4" t="n">
-        <v>130.7751102928393</v>
+        <v>130.7751102928394</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0.692247037268956</v>
       </c>
       <c r="J2" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>34.73682390723568</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>130.7751102928392</v>
+        <v>130.7751102928393</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0.692247037268956</v>
       </c>
       <c r="O2" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>34.73682390723568</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="C14" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="D14" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="E14" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="F14" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="G14" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="H14" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="I14" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -28374,28 +28374,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="S14" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="T14" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="U14" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="V14" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="W14" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="X14" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="Y14" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
     </row>
     <row r="15">
@@ -28405,28 +28405,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="C15" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="D15" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="E15" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="F15" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="G15" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="H15" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="I15" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -28453,28 +28453,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="S15" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="T15" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="U15" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="V15" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="W15" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="X15" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="Y15" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
     </row>
     <row r="16">
@@ -28484,31 +28484,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="C16" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="D16" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="E16" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="F16" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="G16" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="H16" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="I16" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="J16" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -28529,31 +28529,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="R16" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="S16" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="T16" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="U16" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="V16" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="W16" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="X16" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
     </row>
     <row r="17">
@@ -28748,7 +28748,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="K19" t="n">
-        <v>22.26949182588285</v>
+        <v>38.1644784293424</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28763,7 +28763,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>18.61642733856608</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
         <v>86.16204325169439</v>
@@ -29000,10 +29000,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>15.38183773884557</v>
+        <v>18.61642733856608</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.39663285141508</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
         <v>89.39663285141508</v>
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="C26" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="D26" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="E26" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="F26" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="G26" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="H26" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="I26" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -29322,28 +29322,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="S26" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="T26" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="U26" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="V26" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="W26" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="X26" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="Y26" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
     </row>
     <row r="27">
@@ -29353,25 +29353,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="C27" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="D27" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="E27" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="F27" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="G27" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="H27" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -29401,28 +29401,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="S27" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="T27" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="U27" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="V27" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="W27" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="X27" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="Y27" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
     </row>
     <row r="28">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="C28" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="D28" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="E28" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="F28" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="G28" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="H28" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="I28" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="J28" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="K28" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="L28" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="M28" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="N28" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="O28" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="P28" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="Q28" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="R28" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="S28" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="T28" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="U28" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="V28" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="W28" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="X28" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="Y28" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="C29" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="D29" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="E29" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="F29" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="G29" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="H29" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="I29" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -29559,28 +29559,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="S29" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="T29" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="U29" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="V29" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="W29" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="X29" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="Y29" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
     </row>
     <row r="30">
@@ -29590,25 +29590,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="C30" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="D30" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="E30" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="F30" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="G30" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="H30" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -29638,28 +29638,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="S30" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="T30" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="U30" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="V30" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="W30" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="X30" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="Y30" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
     </row>
     <row r="31">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="C31" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="D31" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="E31" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="F31" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="G31" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="H31" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="I31" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="J31" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="K31" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="L31" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="M31" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="N31" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="O31" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="P31" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="Q31" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="R31" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="S31" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="T31" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="U31" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="V31" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="W31" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="X31" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="Y31" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="C32" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="D32" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="E32" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="F32" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="G32" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="H32" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="I32" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -29796,28 +29796,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="S32" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="T32" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="U32" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="V32" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="W32" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="X32" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="Y32" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
     </row>
     <row r="33">
@@ -29827,25 +29827,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="C33" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="D33" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="E33" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="F33" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="G33" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="H33" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -29875,28 +29875,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="S33" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="T33" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="U33" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="V33" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="W33" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="X33" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="Y33" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
     </row>
     <row r="34">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="C34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="D34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="E34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="F34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="G34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="H34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="I34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="J34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="K34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="L34" t="n">
-        <v>90.78112692595299</v>
+        <v>85.9353976650703</v>
       </c>
       <c r="M34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="N34" t="n">
-        <v>85.9353976650701</v>
+        <v>90.781126925953</v>
       </c>
       <c r="O34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="P34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="Q34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="R34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="S34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="T34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="U34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="V34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="W34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="X34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="Y34" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="C35" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="D35" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="E35" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="F35" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="G35" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="H35" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="I35" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -30033,28 +30033,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="S35" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="T35" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="U35" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="V35" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="W35" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="X35" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="Y35" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
     </row>
     <row r="36">
@@ -30064,25 +30064,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="C36" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="D36" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="E36" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="F36" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="G36" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="H36" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -30112,28 +30112,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="S36" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="T36" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="U36" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="V36" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="W36" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="X36" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="Y36" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
     </row>
     <row r="37">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="C37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="D37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="E37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="F37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="G37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="H37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="I37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="J37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="K37" t="n">
-        <v>85.93539766507014</v>
+        <v>85.9353976650703</v>
       </c>
       <c r="L37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="M37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="N37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="O37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="P37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="Q37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="R37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="S37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="T37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="U37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="V37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="W37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="X37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.78112692595299</v>
+        <v>90.781126925953</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="C38" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="D38" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="E38" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="F38" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="G38" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="H38" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="I38" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -30270,28 +30270,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="S38" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="T38" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="U38" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="V38" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="W38" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="X38" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="Y38" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
     </row>
     <row r="39">
@@ -30301,25 +30301,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="C39" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="D39" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="E39" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="F39" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="G39" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="H39" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -30349,28 +30349,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="S39" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="T39" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="U39" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="V39" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="W39" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="X39" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="Y39" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
     </row>
     <row r="40">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="C40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="D40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="E40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="F40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="G40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="H40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="I40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="J40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="K40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="L40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="M40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="N40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="O40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="P40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="Q40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="R40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="S40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="T40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="U40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="V40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="W40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="X40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.08887988868403</v>
+        <v>90.08887988868405</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="C41" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="D41" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="E41" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="F41" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="G41" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="H41" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="I41" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30507,28 +30507,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="S41" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="T41" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="U41" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="V41" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="W41" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="X41" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="Y41" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
     </row>
     <row r="42">
@@ -30538,28 +30538,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="C42" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="D42" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="E42" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="F42" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="G42" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="H42" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="I42" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30586,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="S42" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="T42" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="U42" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="V42" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="W42" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="X42" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="Y42" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
     </row>
     <row r="43">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="C43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="D43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="E43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="F43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="G43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="H43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="I43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="J43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="K43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="L43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="M43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="N43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="O43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="P43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="Q43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="R43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="S43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="T43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="U43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="V43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="W43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="X43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="Y43" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="C44" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="D44" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="E44" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="F44" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="G44" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="H44" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="I44" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -30744,28 +30744,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="S44" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="T44" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="U44" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="V44" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="W44" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="X44" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="Y44" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
     </row>
     <row r="45">
@@ -30775,28 +30775,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="C45" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="D45" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="E45" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="F45" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="G45" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="H45" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="I45" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -30823,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="S45" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="T45" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="U45" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="V45" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="W45" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="X45" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="Y45" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
     </row>
     <row r="46">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="C46" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="D46" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="E46" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="F46" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="G46" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="H46" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="I46" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="J46" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="K46" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="L46" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="M46" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="N46" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="O46" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="P46" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="Q46" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="R46" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="S46" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="T46" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="U46" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="V46" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="W46" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="X46" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="Y46" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
     </row>
   </sheetData>
@@ -35886,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>34.73682390723568</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="L17" t="n">
-        <v>34.73682390723568</v>
+        <v>33.33331587057968</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>34.73682390723568</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>33.33331587057971</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35965,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="L18" t="n">
-        <v>34.73682390723568</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="M18" t="n">
-        <v>34.73682390723568</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="N18" t="n">
-        <v>34.73682390723568</v>
+        <v>33.33331587057968</v>
       </c>
       <c r="O18" t="n">
-        <v>33.33331587057971</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>15.89498660345955</v>
       </c>
       <c r="L19" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="M19" t="n">
-        <v>34.73682390723568</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="N19" t="n">
-        <v>34.73682390723568</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="O19" t="n">
         <v>24.58512791403967</v>
       </c>
       <c r="P19" t="n">
-        <v>15.89498660345956</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36123,22 +36123,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>33.33331587057979</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>34.73682390723579</v>
+        <v>33.33331587057968</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="O20" t="n">
-        <v>34.73682390723579</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="P20" t="n">
-        <v>34.73682390723579</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>34.73682390723579</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>34.73682390723579</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="O21" t="n">
-        <v>33.3333158705798</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>33.33331587057968</v>
       </c>
       <c r="Q21" t="n">
-        <v>34.73682390723579</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36287,19 +36287,19 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M22" t="n">
-        <v>34.73682390723579</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="N22" t="n">
-        <v>34.73682390723579</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="O22" t="n">
         <v>24.58512791403967</v>
       </c>
       <c r="P22" t="n">
-        <v>12.66039700373906</v>
+        <v>15.89498660345956</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.234589599720692</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>8.122613482245683</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>165.511934200075</v>
@@ -36375,7 +36375,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>8.122613482245667</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36439,10 +36439,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>165.511934200075</v>
       </c>
       <c r="M24" t="n">
         <v>165.511934200075</v>
@@ -36451,13 +36451,13 @@
         <v>165.511934200075</v>
       </c>
       <c r="O24" t="n">
-        <v>165.511934200075</v>
+        <v>32.20078528508469</v>
       </c>
       <c r="P24" t="n">
-        <v>88.72906967347669</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36600,13 +36600,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L26" t="n">
+        <v>165.5119342000751</v>
+      </c>
+      <c r="M26" t="n">
+        <v>165.5119342000751</v>
+      </c>
+      <c r="N26" t="n">
         <v>129.7152435809821</v>
-      </c>
-      <c r="M26" t="n">
-        <v>165.511934200075</v>
-      </c>
-      <c r="N26" t="n">
-        <v>165.511934200075</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>88.72906967347673</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>88.72906967347667</v>
       </c>
       <c r="N27" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="O27" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="P27" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>67.81938806280117</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="L28" t="n">
         <v>117.6789051490002</v>
@@ -36770,10 +36770,10 @@
         <v>114.6740078027237</v>
       </c>
       <c r="P28" t="n">
-        <v>87.36743915357751</v>
+        <v>87.36743915357752</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.926836636989634</v>
+        <v>3.926836636989648</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,16 +36834,16 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>104.0555615261842</v>
+        <v>83.06883526610766</v>
       </c>
       <c r="L29" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="N29" t="n">
-        <v>144.5252079399984</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>150.7019698410586</v>
@@ -36916,22 +36916,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>158.8245833233044</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="M30" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="N30" t="n">
-        <v>165.511934200075</v>
+        <v>88.72906967347669</v>
       </c>
       <c r="O30" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="L31" t="n">
         <v>117.6789051490002</v>
@@ -37007,10 +37007,10 @@
         <v>114.6740078027237</v>
       </c>
       <c r="P31" t="n">
-        <v>87.36743915357752</v>
+        <v>87.36743915357754</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.926836636989648</v>
+        <v>3.926836636989663</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,13 +37074,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="M32" t="n">
-        <v>144.5252079399984</v>
+        <v>144.5252079399986</v>
       </c>
       <c r="N32" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>150.7019698410586</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>165.511934200075</v>
+        <v>127.6172058353322</v>
       </c>
       <c r="O33" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="P33" t="n">
-        <v>158.8245833233043</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,25 +37229,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>68.51163510007014</v>
+        <v>68.51163510007015</v>
       </c>
       <c r="L34" t="n">
-        <v>118.3711521862691</v>
+        <v>113.5254229253864</v>
       </c>
       <c r="M34" t="n">
         <v>130.3650038877936</v>
       </c>
       <c r="N34" t="n">
-        <v>130.0675700442987</v>
+        <v>134.9132993051816</v>
       </c>
       <c r="O34" t="n">
         <v>115.3662548399927</v>
       </c>
       <c r="P34" t="n">
-        <v>88.05968619084648</v>
+        <v>88.05968619084649</v>
       </c>
       <c r="Q34" t="n">
-        <v>4.619083674258604</v>
+        <v>4.619083674258619</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,16 +37311,16 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L35" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="M35" t="n">
-        <v>165.511934200075</v>
+        <v>144.5252079399986</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>129.715243580982</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37390,22 +37390,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="M36" t="n">
-        <v>88.72906967347673</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="N36" t="n">
-        <v>165.511934200075</v>
+        <v>158.8245833233043</v>
       </c>
       <c r="O36" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>63.66590583918729</v>
+        <v>63.66590583918745</v>
       </c>
       <c r="L37" t="n">
         <v>118.3711521862691</v>
@@ -37481,10 +37481,10 @@
         <v>115.3662548399927</v>
       </c>
       <c r="P37" t="n">
-        <v>88.05968619084648</v>
+        <v>88.05968619084649</v>
       </c>
       <c r="Q37" t="n">
-        <v>4.619083674258604</v>
+        <v>4.619083674258619</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,13 +37548,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L38" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>144.5252079399986</v>
       </c>
       <c r="N38" t="n">
-        <v>144.5252079399984</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>88.72906967347673</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>88.72906967347667</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="O39" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="P39" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>67.81938806280118</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="L40" t="n">
         <v>117.6789051490002</v>
@@ -37718,10 +37718,10 @@
         <v>114.6740078027237</v>
       </c>
       <c r="P40" t="n">
-        <v>87.36743915357752</v>
+        <v>87.36743915357754</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.926836636989648</v>
+        <v>3.926836636989663</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37788,16 +37788,16 @@
         <v>130.7751102928394</v>
       </c>
       <c r="M41" t="n">
-        <v>61.64510380316668</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="O41" t="n">
         <v>130.7751102928394</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>21.43570592654037</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
+        <v>129.6425797073444</v>
+      </c>
+      <c r="M42" t="n">
         <v>130.7751102928394</v>
       </c>
-      <c r="M42" t="n">
-        <v>125.4912674527246</v>
-      </c>
       <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>130.7751102928394</v>
-      </c>
-      <c r="O42" t="n">
-        <v>130.7751102928394</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37940,10 +37940,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>45.54989623691833</v>
+        <v>45.54989623691834</v>
       </c>
       <c r="L43" t="n">
-        <v>95.40941332311732</v>
+        <v>95.40941332311733</v>
       </c>
       <c r="M43" t="n">
         <v>107.4032650246418</v>
@@ -37952,10 +37952,10 @@
         <v>111.9515604420298</v>
       </c>
       <c r="O43" t="n">
-        <v>92.40451597684086</v>
+        <v>92.40451597684087</v>
       </c>
       <c r="P43" t="n">
-        <v>65.09794732769467</v>
+        <v>65.09794732769468</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>34.92555503651152</v>
       </c>
       <c r="L44" t="n">
-        <v>130.7751102928393</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>125.4912674527246</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="N44" t="n">
-        <v>130.7751102928393</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="O44" t="n">
-        <v>130.7751102928393</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38101,22 +38101,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>130.7751102928393</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>129.6425797073444</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="O45" t="n">
-        <v>59.54706605751679</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>130.7751102928393</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,10 +38177,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>45.54989623691833</v>
+        <v>45.54989623691834</v>
       </c>
       <c r="L46" t="n">
-        <v>95.40941332311732</v>
+        <v>95.40941332311733</v>
       </c>
       <c r="M46" t="n">
         <v>107.4032650246418</v>
@@ -38189,10 +38189,10 @@
         <v>111.9515604420298</v>
       </c>
       <c r="O46" t="n">
-        <v>92.40451597684086</v>
+        <v>92.40451597684087</v>
       </c>
       <c r="P46" t="n">
-        <v>65.09794732769467</v>
+        <v>65.09794732769468</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
